--- a/Entities/Data/MovesPokemon.xlsx
+++ b/Entities/Data/MovesPokemon.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16200" windowHeight="11955"/>
+    <workbookView windowHeight="10110"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="118">
   <si>
     <t>ID</t>
   </si>
@@ -89,9 +89,6 @@
     <t>RAZOR LEAF</t>
   </si>
   <si>
-    <t>d8</t>
-  </si>
-  <si>
     <t>FOLHA NAVALHA</t>
   </si>
   <si>
@@ -164,7 +161,7 @@
     <t>TAIL WHIP</t>
   </si>
   <si>
-    <t>W.TWODICES;B.TWODICES</t>
+    <t>W.TWODICES</t>
   </si>
   <si>
     <t>CAUDA CHICOTE</t>
@@ -207,17 +204,195 @@
   </si>
   <si>
     <t>HIDRO-BOMBA</t>
+  </si>
+  <si>
+    <t>STRING SHOT</t>
+  </si>
+  <si>
+    <t>Bug</t>
+  </si>
+  <si>
+    <t>TIRO DE ESTILINGUE</t>
+  </si>
+  <si>
+    <t>POISON STING</t>
+  </si>
+  <si>
+    <t>Poison</t>
+  </si>
+  <si>
+    <t>PICADA VENENOSA</t>
+  </si>
+  <si>
+    <t>HARDEN</t>
+  </si>
+  <si>
+    <t>ENDURECER</t>
+  </si>
+  <si>
+    <t>VENOSHOCK</t>
+  </si>
+  <si>
+    <t>ESPECIAL</t>
+  </si>
+  <si>
+    <t>VENOCHOQUE</t>
+  </si>
+  <si>
+    <t>PIN MISSILE</t>
+  </si>
+  <si>
+    <t>MÍSSIL ESPINHO</t>
+  </si>
+  <si>
+    <t>SAND ATTACK</t>
+  </si>
+  <si>
+    <t>Ground</t>
+  </si>
+  <si>
+    <t>ATAQUE DE AREIA</t>
+  </si>
+  <si>
+    <t>GUST</t>
+  </si>
+  <si>
+    <t>VENTANIA</t>
+  </si>
+  <si>
+    <t>QUICK ATTACK</t>
+  </si>
+  <si>
+    <t>W.FIRST</t>
+  </si>
+  <si>
+    <t>ATAQUE RÁPIDO</t>
+  </si>
+  <si>
+    <t>WHIRWIND</t>
+  </si>
+  <si>
+    <t>B.CHANGE</t>
+  </si>
+  <si>
+    <t>RAJADA DE VENTO</t>
+  </si>
+  <si>
+    <t>AIR SLASH</t>
+  </si>
+  <si>
+    <t>GOLPE DE AR</t>
+  </si>
+  <si>
+    <t>DEFOG</t>
+  </si>
+  <si>
+    <t>DESNEBLINAR</t>
+  </si>
+  <si>
+    <t>PSYBEAM</t>
+  </si>
+  <si>
+    <t>Psychic</t>
+  </si>
+  <si>
+    <t>RAIO PSÍQUICO</t>
+  </si>
+  <si>
+    <t>THUNDER SHOCK</t>
+  </si>
+  <si>
+    <t>Electric</t>
+  </si>
+  <si>
+    <t>B.PARALYZE</t>
+  </si>
+  <si>
+    <t>CHOQUE TROVÃO</t>
+  </si>
+  <si>
+    <t>THUNDER PUNCH</t>
+  </si>
+  <si>
+    <t>SOCO TROVÃO</t>
+  </si>
+  <si>
+    <t>ELECTRIC BALL</t>
+  </si>
+  <si>
+    <t>W.HALFLEVEL</t>
+  </si>
+  <si>
+    <t>BOLA ELÉTRICA</t>
+  </si>
+  <si>
+    <t>HYPER FANG</t>
+  </si>
+  <si>
+    <t>MEGA PRESA</t>
+  </si>
+  <si>
+    <t>SUPER FANG</t>
+  </si>
+  <si>
+    <t>B.HALFLEVEL</t>
+  </si>
+  <si>
+    <t>SUPER PRESA</t>
+  </si>
+  <si>
+    <t>MIRROR MOVE</t>
+  </si>
+  <si>
+    <t>DRILL PECK</t>
+  </si>
+  <si>
+    <t>PECK</t>
+  </si>
+  <si>
+    <t>BICADA</t>
+  </si>
+  <si>
+    <t>LEER</t>
+  </si>
+  <si>
+    <t>ENCARAR</t>
+  </si>
+  <si>
+    <t>ACID</t>
+  </si>
+  <si>
+    <t>ÁCIDO</t>
+  </si>
+  <si>
+    <t>BITE</t>
+  </si>
+  <si>
+    <t>Dark</t>
+  </si>
+  <si>
+    <t>MORDIDA</t>
+  </si>
+  <si>
+    <t>WRAP</t>
+  </si>
+  <si>
+    <t>W.SOMADICES</t>
+  </si>
+  <si>
+    <t>ENRROLAR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -827,8 +1002,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -881,6 +1057,18 @@
     <cellStyle name="40% - Ênfase 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - Ênfase 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="180" formatCode="0_);[Red]\(0\)"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -891,8 +1079,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J19" totalsRowShown="0">
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:J19" etc:filterBottomFollowUsedRange="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J43" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:J43" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="10">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="NAME"/>
@@ -900,7 +1088,7 @@
     <tableColumn id="4" name="TYPE"/>
     <tableColumn id="5" name="DICE"/>
     <tableColumn id="6" name="EFFECT"/>
-    <tableColumn id="7" name="EFROLL"/>
+    <tableColumn id="7" name="EFROLL" dataDxfId="0"/>
     <tableColumn id="8" name="PT.NAME"/>
     <tableColumn id="9" name="SP.NAME"/>
     <tableColumn id="10" name="JP.NAME"/>
@@ -1167,10 +1355,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1179,8 +1367,8 @@
     <col min="2" max="2" width="25.0571428571429" customWidth="1"/>
     <col min="3" max="3" width="7.25714285714286" customWidth="1"/>
     <col min="5" max="5" width="6.77142857142857" customWidth="1"/>
-    <col min="6" max="6" width="13.3904761904762" customWidth="1"/>
-    <col min="7" max="7" width="9.38095238095238" customWidth="1"/>
+    <col min="6" max="6" width="14.6857142857143" customWidth="1"/>
+    <col min="7" max="7" width="9.38095238095238" style="1" customWidth="1"/>
     <col min="8" max="8" width="18.3619047619048" customWidth="1"/>
     <col min="9" max="9" width="14.2761904761905" customWidth="1"/>
     <col min="10" max="10" width="14.6" customWidth="1"/>
@@ -1205,7 +1393,7 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H1" t="s">
@@ -1268,7 +1456,7 @@
       <c r="F4" t="s">
         <v>17</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="1">
         <v>3</v>
       </c>
       <c r="H4" t="s">
@@ -1288,11 +1476,11 @@
       <c r="D5" t="s">
         <v>11</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5">
+        <v>8</v>
+      </c>
+      <c r="H5" t="s">
         <v>20</v>
-      </c>
-      <c r="H5" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1300,7 +1488,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6">
         <v>3</v>
@@ -1309,13 +1497,13 @@
         <v>14</v>
       </c>
       <c r="F6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="1">
+        <v>6</v>
+      </c>
+      <c r="H6" t="s">
         <v>23</v>
-      </c>
-      <c r="G6">
-        <v>6</v>
-      </c>
-      <c r="H6" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1323,7 +1511,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -1332,10 +1520,10 @@
         <v>11</v>
       </c>
       <c r="F7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" t="s">
         <v>26</v>
-      </c>
-      <c r="H7" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1343,22 +1531,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" t="s">
         <v>29</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" s="1">
+        <v>6</v>
+      </c>
+      <c r="H8" t="s">
         <v>30</v>
-      </c>
-      <c r="G8">
-        <v>6</v>
-      </c>
-      <c r="H8" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1366,7 +1554,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -1375,10 +1563,10 @@
         <v>14</v>
       </c>
       <c r="F9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" t="s">
         <v>33</v>
-      </c>
-      <c r="H9" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1386,22 +1574,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
       <c r="D10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" t="s">
         <v>29</v>
       </c>
-      <c r="F10" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10">
+      <c r="G10" s="1">
         <v>6</v>
       </c>
       <c r="H10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1409,7 +1597,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C11">
         <v>2</v>
@@ -1417,11 +1605,11 @@
       <c r="D11" t="s">
         <v>14</v>
       </c>
-      <c r="E11" t="s">
-        <v>20</v>
+      <c r="E11">
+        <v>8</v>
       </c>
       <c r="H11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1429,22 +1617,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12">
         <v>3</v>
       </c>
       <c r="D12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" t="s">
         <v>29</v>
       </c>
-      <c r="F12" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12">
+      <c r="G12" s="1">
         <v>6</v>
       </c>
       <c r="H12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1452,16 +1640,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C13">
         <v>2</v>
       </c>
       <c r="D13" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" t="s">
         <v>42</v>
-      </c>
-      <c r="H13" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1469,7 +1657,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1478,10 +1666,10 @@
         <v>14</v>
       </c>
       <c r="F14" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" t="s">
         <v>45</v>
-      </c>
-      <c r="H14" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1489,16 +1677,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15" t="s">
+        <v>47</v>
+      </c>
+      <c r="H15" t="s">
         <v>48</v>
-      </c>
-      <c r="H15" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1506,19 +1694,19 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F16" t="s">
+        <v>50</v>
+      </c>
+      <c r="H16" t="s">
         <v>51</v>
-      </c>
-      <c r="H16" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1526,22 +1714,22 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C17">
         <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F17" t="s">
+        <v>53</v>
+      </c>
+      <c r="G17" s="1">
+        <v>6</v>
+      </c>
+      <c r="H17" t="s">
         <v>54</v>
-      </c>
-      <c r="G17">
-        <v>6</v>
-      </c>
-      <c r="H17" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1549,7 +1737,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C18">
         <v>3</v>
@@ -1558,10 +1746,10 @@
         <v>14</v>
       </c>
       <c r="F18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1569,19 +1757,517 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C19">
         <v>3</v>
       </c>
       <c r="D19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
         <v>59</v>
       </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20" t="s">
+        <v>60</v>
+      </c>
+      <c r="H20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" s="1">
+        <v>5</v>
+      </c>
+      <c r="H21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22" t="s">
+        <v>32</v>
+      </c>
+      <c r="H22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>63</v>
+      </c>
+      <c r="F23" t="s">
+        <v>68</v>
+      </c>
+      <c r="H23" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>60</v>
+      </c>
+      <c r="E24">
+        <v>4</v>
+      </c>
+      <c r="F24" t="s">
+        <v>44</v>
+      </c>
+      <c r="G24" s="1">
+        <v>4</v>
+      </c>
+      <c r="H24" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25" t="s">
+        <v>73</v>
+      </c>
+      <c r="F25" t="s">
+        <v>32</v>
+      </c>
+      <c r="H25" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>41</v>
+      </c>
+      <c r="H26" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" t="s">
+        <v>78</v>
+      </c>
+      <c r="H27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" t="s">
+        <v>81</v>
+      </c>
+      <c r="H28" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>83</v>
+      </c>
+      <c r="C29">
+        <v>2</v>
+      </c>
+      <c r="D29" t="s">
+        <v>41</v>
+      </c>
+      <c r="F29" t="s">
+        <v>32</v>
+      </c>
+      <c r="G29" s="1">
+        <v>5</v>
+      </c>
+      <c r="H29" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30" t="s">
+        <v>41</v>
+      </c>
+      <c r="F30" t="s">
+        <v>68</v>
+      </c>
+      <c r="H30" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>87</v>
+      </c>
+      <c r="C31">
+        <v>2</v>
+      </c>
+      <c r="D31" t="s">
+        <v>88</v>
+      </c>
+      <c r="F31" t="s">
+        <v>53</v>
+      </c>
+      <c r="G31" s="1">
+        <v>6</v>
+      </c>
+      <c r="H31" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>90</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
+        <v>91</v>
+      </c>
+      <c r="F32" t="s">
+        <v>92</v>
+      </c>
+      <c r="G32" s="1">
+        <v>6</v>
+      </c>
+      <c r="H32" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>94</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33" t="s">
+        <v>91</v>
+      </c>
+      <c r="F33" t="s">
+        <v>92</v>
+      </c>
+      <c r="H33" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>96</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34" t="s">
+        <v>91</v>
+      </c>
+      <c r="F34" t="s">
+        <v>97</v>
+      </c>
+      <c r="H34" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>99</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" t="s">
+        <v>32</v>
+      </c>
+      <c r="H35" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>101</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" t="s">
+        <v>102</v>
+      </c>
+      <c r="H36" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>104</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37" t="s">
+        <v>41</v>
+      </c>
+      <c r="F37" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>105</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>106</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39" t="s">
+        <v>41</v>
+      </c>
+      <c r="H39" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>108</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40" t="s">
+        <v>14</v>
+      </c>
+      <c r="F40" t="s">
+        <v>44</v>
+      </c>
+      <c r="H40" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>110</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41" t="s">
+        <v>63</v>
+      </c>
+      <c r="F41" t="s">
+        <v>44</v>
+      </c>
+      <c r="G41" s="1">
+        <v>6</v>
+      </c>
+      <c r="H41" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>112</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+      <c r="D42" t="s">
+        <v>113</v>
+      </c>
+      <c r="F42" t="s">
+        <v>32</v>
+      </c>
+      <c r="G42" s="1">
+        <v>5</v>
+      </c>
+      <c r="H42" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>115</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43" t="s">
+        <v>14</v>
+      </c>
+      <c r="E43">
+        <v>4</v>
+      </c>
+      <c r="F43" t="s">
+        <v>116</v>
+      </c>
+      <c r="G43" s="1">
+        <v>4</v>
+      </c>
+      <c r="H43" t="s">
+        <v>117</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A2:A43">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B43">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
   <tableParts count="1">

--- a/Entities/Data/MovesPokemon.xlsx
+++ b/Entities/Data/MovesPokemon.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="10110"/>
+    <workbookView windowWidth="16935" windowHeight="11865"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="137">
   <si>
     <t>ID</t>
   </si>
@@ -242,6 +242,9 @@
     <t>PIN MISSILE</t>
   </si>
   <si>
+    <t>W.SOMADICES</t>
+  </si>
+  <si>
     <t>MÍSSIL ESPINHO</t>
   </si>
   <si>
@@ -377,10 +380,64 @@
     <t>WRAP</t>
   </si>
   <si>
-    <t>W.SOMADICES</t>
-  </si>
-  <si>
     <t>ENRROLAR</t>
+  </si>
+  <si>
+    <t>SCRATCH</t>
+  </si>
+  <si>
+    <t>ARRANHAR</t>
+  </si>
+  <si>
+    <t>HORN ATTACK</t>
+  </si>
+  <si>
+    <t>ATAQUE DE CHIFRE</t>
+  </si>
+  <si>
+    <t>HORN DRILL</t>
+  </si>
+  <si>
+    <t>B.KO</t>
+  </si>
+  <si>
+    <t>CHIFRE BROCA</t>
+  </si>
+  <si>
+    <t>THRASH</t>
+  </si>
+  <si>
+    <t>W.CONFUSION</t>
+  </si>
+  <si>
+    <t>SWIFT</t>
+  </si>
+  <si>
+    <t>W.PRECISION</t>
+  </si>
+  <si>
+    <t>ATAQUE SURPRESA</t>
+  </si>
+  <si>
+    <t>DIG</t>
+  </si>
+  <si>
+    <t>CAVAR</t>
+  </si>
+  <si>
+    <t>DOUBLE KICK</t>
+  </si>
+  <si>
+    <t>Fighting</t>
+  </si>
+  <si>
+    <t>CHUTE DUPLO</t>
+  </si>
+  <si>
+    <t>BODYSLAM</t>
+  </si>
+  <si>
+    <t>GOLPE DE CORPO</t>
   </si>
 </sst>
 </file>
@@ -1079,8 +1136,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J43" totalsRowShown="0">
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:J43" etc:filterBottomFollowUsedRange="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J51" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:J51" etc:filterBottomFollowUsedRange="0"/>
   <tableColumns count="10">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="NAME"/>
@@ -1355,10 +1412,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J43"/>
+  <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1866,13 +1923,13 @@
         <v>4</v>
       </c>
       <c r="F24" t="s">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="G24" s="1">
         <v>4</v>
       </c>
       <c r="H24" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1880,19 +1937,19 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F25" t="s">
         <v>32</v>
       </c>
       <c r="H25" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1900,7 +1957,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -1909,7 +1966,7 @@
         <v>41</v>
       </c>
       <c r="H26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1917,7 +1974,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -1926,10 +1983,10 @@
         <v>14</v>
       </c>
       <c r="F27" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H27" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1937,7 +1994,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -1946,10 +2003,10 @@
         <v>14</v>
       </c>
       <c r="F28" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H28" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1957,7 +2014,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C29">
         <v>2</v>
@@ -1972,7 +2029,7 @@
         <v>5</v>
       </c>
       <c r="H29" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1980,7 +2037,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -1992,7 +2049,7 @@
         <v>68</v>
       </c>
       <c r="H30" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -2000,13 +2057,13 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C31">
         <v>2</v>
       </c>
       <c r="D31" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F31" t="s">
         <v>53</v>
@@ -2015,7 +2072,7 @@
         <v>6</v>
       </c>
       <c r="H31" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2023,22 +2080,22 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F32" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G32" s="1">
         <v>6</v>
       </c>
       <c r="H32" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2046,19 +2103,22 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C33">
         <v>2</v>
       </c>
       <c r="D33" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F33" t="s">
-        <v>92</v>
+        <v>93</v>
+      </c>
+      <c r="G33" s="1">
+        <v>6</v>
       </c>
       <c r="H33" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2066,19 +2126,19 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C34">
         <v>0</v>
       </c>
       <c r="D34" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F34" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H34" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2086,7 +2146,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C35">
         <v>2</v>
@@ -2098,7 +2158,7 @@
         <v>32</v>
       </c>
       <c r="H35" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2106,7 +2166,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -2115,10 +2175,10 @@
         <v>14</v>
       </c>
       <c r="F36" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H36" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2126,7 +2186,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -2143,7 +2203,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C38">
         <v>2</v>
@@ -2157,7 +2217,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -2166,7 +2226,7 @@
         <v>41</v>
       </c>
       <c r="H39" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2174,7 +2234,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -2186,7 +2246,7 @@
         <v>44</v>
       </c>
       <c r="H40" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2194,7 +2254,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -2209,7 +2269,7 @@
         <v>6</v>
       </c>
       <c r="H41" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2217,13 +2277,13 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C42">
         <v>2</v>
       </c>
       <c r="D42" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F42" t="s">
         <v>32</v>
@@ -2232,7 +2292,7 @@
         <v>5</v>
       </c>
       <c r="H42" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2240,7 +2300,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -2252,7 +2312,7 @@
         <v>4</v>
       </c>
       <c r="F43" t="s">
-        <v>116</v>
+        <v>71</v>
       </c>
       <c r="G43" s="1">
         <v>4</v>
@@ -2261,11 +2321,168 @@
         <v>117</v>
       </c>
     </row>
+    <row r="44" spans="1:8">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>118</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44" t="s">
+        <v>14</v>
+      </c>
+      <c r="H44" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>120</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="D45" t="s">
+        <v>14</v>
+      </c>
+      <c r="H45" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>122</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46" t="s">
+        <v>14</v>
+      </c>
+      <c r="F46" t="s">
+        <v>123</v>
+      </c>
+      <c r="G46" s="1">
+        <v>5</v>
+      </c>
+      <c r="H46" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>125</v>
+      </c>
+      <c r="C47">
+        <v>3</v>
+      </c>
+      <c r="D47" t="s">
+        <v>14</v>
+      </c>
+      <c r="F47" t="s">
+        <v>126</v>
+      </c>
+      <c r="G47" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>127</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+      <c r="D48" t="s">
+        <v>14</v>
+      </c>
+      <c r="F48" t="s">
+        <v>128</v>
+      </c>
+      <c r="H48" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>130</v>
+      </c>
+      <c r="C49">
+        <v>2</v>
+      </c>
+      <c r="D49" t="s">
+        <v>74</v>
+      </c>
+      <c r="H49" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>132</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50" t="s">
+        <v>133</v>
+      </c>
+      <c r="E50">
+        <v>4</v>
+      </c>
+      <c r="F50" t="s">
+        <v>71</v>
+      </c>
+      <c r="H50" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>135</v>
+      </c>
+      <c r="C51">
+        <v>2</v>
+      </c>
+      <c r="D51" t="s">
+        <v>14</v>
+      </c>
+      <c r="F51" t="s">
+        <v>93</v>
+      </c>
+      <c r="H51" t="s">
+        <v>136</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:A43">
+  <conditionalFormatting sqref="A2:A51">
     <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B43">
+  <conditionalFormatting sqref="B2:B51">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Entities/Data/MovesPokemon.xlsx
+++ b/Entities/Data/MovesPokemon.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16935" windowHeight="11865"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21555" windowHeight="10350"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="182">
   <si>
     <t>ID</t>
   </si>
@@ -438,20 +438,151 @@
   </si>
   <si>
     <t>GOLPE DE CORPO</t>
+  </si>
+  <si>
+    <t>SING</t>
+  </si>
+  <si>
+    <t>B.SLEEP</t>
+  </si>
+  <si>
+    <t>CANÇÃO</t>
+  </si>
+  <si>
+    <t>POUND</t>
+  </si>
+  <si>
+    <t>TAPA</t>
+  </si>
+  <si>
+    <t>DOUBLE SLAP</t>
+  </si>
+  <si>
+    <t>TAPA DUPLO</t>
+  </si>
+  <si>
+    <t>METRONOME</t>
+  </si>
+  <si>
+    <t>METRONOMO</t>
+  </si>
+  <si>
+    <t>FIRE SPIN</t>
+  </si>
+  <si>
+    <t>CÍRCULO DE FOGO</t>
+  </si>
+  <si>
+    <t>DISARMING VOICE</t>
+  </si>
+  <si>
+    <t>Fairy</t>
+  </si>
+  <si>
+    <t>VOZ DESARMANTE</t>
+  </si>
+  <si>
+    <t>PLAY ROUGH</t>
+  </si>
+  <si>
+    <t>BRIGAR</t>
+  </si>
+  <si>
+    <t>SUPERSONIC</t>
+  </si>
+  <si>
+    <t>SUPERSÔNICO</t>
+  </si>
+  <si>
+    <t>ANTONISH</t>
+  </si>
+  <si>
+    <t>Ghost</t>
+  </si>
+  <si>
+    <t>ASSUSTAR</t>
+  </si>
+  <si>
+    <t>POISON FANG</t>
+  </si>
+  <si>
+    <t>PRESA VENENO</t>
+  </si>
+  <si>
+    <t>AIR CUTTER</t>
+  </si>
+  <si>
+    <t>AR CORTANTE</t>
+  </si>
+  <si>
+    <t>ABSORB</t>
+  </si>
+  <si>
+    <t>ABSORÇÃO</t>
+  </si>
+  <si>
+    <t>STUN SPORE</t>
+  </si>
+  <si>
+    <t>PÓ ATORDOANTE</t>
+  </si>
+  <si>
+    <t>PETAL DANCE</t>
+  </si>
+  <si>
+    <t>W.SLEEP</t>
+  </si>
+  <si>
+    <t>DANÇA DE PÉTALAS</t>
+  </si>
+  <si>
+    <t>SLUDGE WAVE</t>
+  </si>
+  <si>
+    <t>ONDA DE LAMA</t>
+  </si>
+  <si>
+    <t>SPORE</t>
+  </si>
+  <si>
+    <t>ESPOROS</t>
+  </si>
+  <si>
+    <t>CONFUSION</t>
+  </si>
+  <si>
+    <t>CONFUSÃO</t>
+  </si>
+  <si>
+    <t>SLEEP POWDER</t>
+  </si>
+  <si>
+    <t>PÓ DO SONO</t>
+  </si>
+  <si>
+    <t>LEECH LIFE</t>
+  </si>
+  <si>
+    <t>W.LIFE</t>
+  </si>
+  <si>
+    <t>DRENO DE VIDA</t>
+  </si>
+  <si>
+    <t>MOVIMENTO ESPELHO</t>
+  </si>
+  <si>
+    <t>BICADA FURADEIRA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="0_);[Red]\(0\)"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -459,353 +590,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -813,310 +607,27 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Moeda" xfId="2" builtinId="4"/>
-    <cellStyle name="Porcentagem" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Moeda [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Hyperlink seguido" xfId="7" builtinId="9"/>
-    <cellStyle name="Observação" xfId="8" builtinId="10"/>
-    <cellStyle name="Texto de Aviso" xfId="9" builtinId="11"/>
-    <cellStyle name="Título" xfId="10" builtinId="15"/>
-    <cellStyle name="Texto Explicativo" xfId="11" builtinId="53"/>
-    <cellStyle name="Título 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Título 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Título 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Título 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Entrada" xfId="16" builtinId="20"/>
-    <cellStyle name="Saída" xfId="17" builtinId="21"/>
-    <cellStyle name="Cálculo" xfId="18" builtinId="22"/>
-    <cellStyle name="Célula de Verificação" xfId="19" builtinId="23"/>
-    <cellStyle name="Célula Vinculada" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Bom" xfId="22" builtinId="26"/>
-    <cellStyle name="Ruim" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutro" xfId="24" builtinId="28"/>
-    <cellStyle name="Ênfase 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Ênfase 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Ênfase 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Ênfase 1" xfId="28" builtinId="32"/>
-    <cellStyle name="Ênfase 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Ênfase 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Ênfase 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Ênfase 2" xfId="32" builtinId="36"/>
-    <cellStyle name="Ênfase 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Ênfase 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Ênfase 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Ênfase 3" xfId="36" builtinId="40"/>
-    <cellStyle name="Ênfase 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Ênfase 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Ênfase 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Ênfase 4" xfId="40" builtinId="44"/>
-    <cellStyle name="Ênfase 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Ênfase 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Ênfase 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Ênfase 5" xfId="44" builtinId="48"/>
-    <cellStyle name="Ênfase 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Ênfase 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Ênfase 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Ênfase 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
     <dxf>
-      <numFmt numFmtId="180" formatCode="0_);[Red]\(0\)"/>
+      <numFmt numFmtId="164" formatCode="0_);[Red]\(0\)"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF9900"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -1136,8 +647,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J51" totalsRowShown="0">
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:J51" etc:filterBottomFollowUsedRange="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J70" totalsRowShown="0">
+  <autoFilter ref="A1:J70"/>
   <tableColumns count="10">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="NAME"/>
@@ -1406,29 +917,29 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:J51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.05714285714286" customWidth="1"/>
-    <col min="2" max="2" width="25.0571428571429" customWidth="1"/>
-    <col min="3" max="3" width="7.25714285714286" customWidth="1"/>
-    <col min="5" max="5" width="6.77142857142857" customWidth="1"/>
-    <col min="6" max="6" width="14.6857142857143" customWidth="1"/>
-    <col min="7" max="7" width="9.38095238095238" style="1" customWidth="1"/>
-    <col min="8" max="8" width="18.3619047619048" customWidth="1"/>
-    <col min="9" max="9" width="14.2761904761905" customWidth="1"/>
-    <col min="10" max="10" width="14.6" customWidth="1"/>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.140625" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -1463,7 +974,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:10">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1480,7 +991,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1497,7 +1008,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:10">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1520,7 +1031,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:10">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1540,7 +1051,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:10">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1563,7 +1074,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:10">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1583,7 +1094,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:10">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1606,7 +1117,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:10">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1626,7 +1137,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:10">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1649,7 +1160,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:10">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1669,7 +1180,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:10">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1692,7 +1203,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:10">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1709,7 +1220,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:10">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1729,7 +1240,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:10">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1746,7 +1257,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:10">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2181,7 +1692,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:8">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2197,8 +1708,11 @@
       <c r="F37" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="H37" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2210,6 +1724,9 @@
       </c>
       <c r="D38" t="s">
         <v>41</v>
+      </c>
+      <c r="H38" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2378,7 +1895,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:8">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2474,19 +1991,437 @@
       <c r="F51" t="s">
         <v>93</v>
       </c>
+      <c r="G51" s="1">
+        <v>5</v>
+      </c>
       <c r="H51" t="s">
         <v>136</v>
       </c>
     </row>
+    <row r="52" spans="1:8">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>137</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52" t="s">
+        <v>14</v>
+      </c>
+      <c r="F52" t="s">
+        <v>138</v>
+      </c>
+      <c r="G52" s="1">
+        <v>4</v>
+      </c>
+      <c r="H52" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>140</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53" t="s">
+        <v>14</v>
+      </c>
+      <c r="H53" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>142</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54" t="s">
+        <v>14</v>
+      </c>
+      <c r="E54">
+        <v>4</v>
+      </c>
+      <c r="F54" t="s">
+        <v>71</v>
+      </c>
+      <c r="G54" s="1">
+        <v>4</v>
+      </c>
+      <c r="H54" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>144</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55" t="s">
+        <v>14</v>
+      </c>
+      <c r="F55" t="s">
+        <v>68</v>
+      </c>
+      <c r="H55" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>146</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56" t="s">
+        <v>28</v>
+      </c>
+      <c r="E56">
+        <v>4</v>
+      </c>
+      <c r="F56" t="s">
+        <v>71</v>
+      </c>
+      <c r="G56" s="1">
+        <v>4</v>
+      </c>
+      <c r="H56" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>148</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57" t="s">
+        <v>149</v>
+      </c>
+      <c r="F57" t="s">
+        <v>128</v>
+      </c>
+      <c r="H57" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>151</v>
+      </c>
+      <c r="C58">
+        <v>2</v>
+      </c>
+      <c r="D58" t="s">
+        <v>149</v>
+      </c>
+      <c r="F58" t="s">
+        <v>32</v>
+      </c>
+      <c r="G58" s="1">
+        <v>6</v>
+      </c>
+      <c r="H58" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>153</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59" t="s">
+        <v>14</v>
+      </c>
+      <c r="F59" t="s">
+        <v>53</v>
+      </c>
+      <c r="G59" s="1">
+        <v>4</v>
+      </c>
+      <c r="H59" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>155</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60" t="s">
+        <v>156</v>
+      </c>
+      <c r="F60" t="s">
+        <v>32</v>
+      </c>
+      <c r="G60" s="1">
+        <v>5</v>
+      </c>
+      <c r="H60" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>158</v>
+      </c>
+      <c r="C61">
+        <v>2</v>
+      </c>
+      <c r="D61" t="s">
+        <v>63</v>
+      </c>
+      <c r="F61" t="s">
+        <v>17</v>
+      </c>
+      <c r="G61" s="1">
+        <v>4</v>
+      </c>
+      <c r="H61" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>160</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62" t="s">
+        <v>41</v>
+      </c>
+      <c r="E62">
+        <v>8</v>
+      </c>
+      <c r="H62" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>162</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63" t="s">
+        <v>11</v>
+      </c>
+      <c r="H63" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>164</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64" t="s">
+        <v>11</v>
+      </c>
+      <c r="F64" t="s">
+        <v>93</v>
+      </c>
+      <c r="G64" s="1">
+        <v>3</v>
+      </c>
+      <c r="H64" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>166</v>
+      </c>
+      <c r="C65">
+        <v>3</v>
+      </c>
+      <c r="D65" t="s">
+        <v>11</v>
+      </c>
+      <c r="F65" t="s">
+        <v>167</v>
+      </c>
+      <c r="G65" s="1">
+        <v>5</v>
+      </c>
+      <c r="H65" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>169</v>
+      </c>
+      <c r="C66">
+        <v>2</v>
+      </c>
+      <c r="D66" t="s">
+        <v>63</v>
+      </c>
+      <c r="F66" t="s">
+        <v>17</v>
+      </c>
+      <c r="G66" s="1">
+        <v>6</v>
+      </c>
+      <c r="H66" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>171</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67" t="s">
+        <v>11</v>
+      </c>
+      <c r="F67" t="s">
+        <v>138</v>
+      </c>
+      <c r="H67" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>173</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68" t="s">
+        <v>89</v>
+      </c>
+      <c r="F68" t="s">
+        <v>138</v>
+      </c>
+      <c r="G68" s="1">
+        <v>6</v>
+      </c>
+      <c r="H68" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>175</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69" t="s">
+        <v>11</v>
+      </c>
+      <c r="F69" t="s">
+        <v>138</v>
+      </c>
+      <c r="G69" s="1">
+        <v>3</v>
+      </c>
+      <c r="H69" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>177</v>
+      </c>
+      <c r="C70">
+        <v>2</v>
+      </c>
+      <c r="D70" t="s">
+        <v>60</v>
+      </c>
+      <c r="F70" t="s">
+        <v>178</v>
+      </c>
+      <c r="H70" t="s">
+        <v>179</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:A51">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  <conditionalFormatting sqref="A2:A70">
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B51">
+  <conditionalFormatting sqref="B2:B70">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>

--- a/Entities/Data/MovesPokemon.xlsx
+++ b/Entities/Data/MovesPokemon.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21555" windowHeight="10350"/>
+    <workbookView windowWidth="16125" windowHeight="10530"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="367">
   <si>
     <t>ID</t>
   </si>
@@ -59,7 +59,7 @@
     <t>JP.NAME</t>
   </si>
   <si>
-    <t>VINEWHIP</t>
+    <t>VINE WHIP</t>
   </si>
   <si>
     <t>Grass</t>
@@ -68,130 +68,898 @@
     <t>CHICOTE DE VINHA</t>
   </si>
   <si>
+    <t>GROWL</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>B.TWODICES</t>
+  </si>
+  <si>
+    <t>ROSNADO</t>
+  </si>
+  <si>
+    <t>POISON POWDER</t>
+  </si>
+  <si>
+    <t>B.POISON</t>
+  </si>
+  <si>
+    <t>PÓ VENENOSO</t>
+  </si>
+  <si>
+    <t>RAZOR LEAF</t>
+  </si>
+  <si>
+    <t>FOLHA NAVALHA</t>
+  </si>
+  <si>
+    <t>TAIL WHIP</t>
+  </si>
+  <si>
+    <t>W.TWODICES</t>
+  </si>
+  <si>
+    <t>CAUDA CHICOTE</t>
+  </si>
+  <si>
+    <t>SOLAR BEAM</t>
+  </si>
+  <si>
+    <t>RECHARGE</t>
+  </si>
+  <si>
+    <t>RAIO SOLAR</t>
+  </si>
+  <si>
+    <t>EMBER</t>
+  </si>
+  <si>
+    <t>Fire</t>
+  </si>
+  <si>
+    <t>B.BURN</t>
+  </si>
+  <si>
+    <t>BRASA</t>
+  </si>
+  <si>
+    <t>HARDEN</t>
+  </si>
+  <si>
+    <t>ENDURECER</t>
+  </si>
+  <si>
+    <t>FLAMETHROWER</t>
+  </si>
+  <si>
+    <t>LANÇA-CHAMAS</t>
+  </si>
+  <si>
+    <t>WHIRWIND</t>
+  </si>
+  <si>
+    <t>B.CHANGE</t>
+  </si>
+  <si>
+    <t>RAJADA DE VENTO</t>
+  </si>
+  <si>
+    <t>FIRE BURST</t>
+  </si>
+  <si>
+    <t>EXPLOSÃO DE FOGO</t>
+  </si>
+  <si>
+    <t>WING ATTACK</t>
+  </si>
+  <si>
+    <t>Flying</t>
+  </si>
+  <si>
+    <t>ATAQUE DE ASA</t>
+  </si>
+  <si>
+    <t>SUPER FANG</t>
+  </si>
+  <si>
+    <t>B.HALFLEVEL</t>
+  </si>
+  <si>
+    <t>SUPER PRESA</t>
+  </si>
+  <si>
+    <t>BUBBLE</t>
+  </si>
+  <si>
+    <t>Water</t>
+  </si>
+  <si>
+    <t>BOLHAS</t>
+  </si>
+  <si>
+    <t>RAIN DANCE</t>
+  </si>
+  <si>
+    <t>RAIN</t>
+  </si>
+  <si>
+    <t>DANÇA DA CHUVA</t>
+  </si>
+  <si>
+    <t>WATER PULSE</t>
+  </si>
+  <si>
+    <t>B.CONFUSION</t>
+  </si>
+  <si>
+    <t>PULSO D'ÁGUA</t>
+  </si>
+  <si>
+    <t>LEER</t>
+  </si>
+  <si>
+    <t>ENCARAR</t>
+  </si>
+  <si>
+    <t>HYDRO PUMP</t>
+  </si>
+  <si>
+    <t>HIDRO-BOMBA</t>
+  </si>
+  <si>
+    <t>STRING SHOT</t>
+  </si>
+  <si>
+    <t>Bug</t>
+  </si>
+  <si>
+    <t>TIRO DE ESTILINGUE</t>
+  </si>
+  <si>
+    <t>POISON STING</t>
+  </si>
+  <si>
+    <t>Poison</t>
+  </si>
+  <si>
+    <t>PICADA VENENOSA</t>
+  </si>
+  <si>
+    <t>HORN DRILL</t>
+  </si>
+  <si>
+    <t>B.KO</t>
+  </si>
+  <si>
+    <t>CHIFRE BROCA</t>
+  </si>
+  <si>
+    <t>VENOSHOCK</t>
+  </si>
+  <si>
+    <t>ESPECIAL</t>
+  </si>
+  <si>
+    <t>VENOCHOQUE</t>
+  </si>
+  <si>
+    <t>PIN MISSILE</t>
+  </si>
+  <si>
+    <t>W.SOMADICES</t>
+  </si>
+  <si>
+    <t>MÍSSIL ESPINHO</t>
+  </si>
+  <si>
+    <t>SAND ATTACK</t>
+  </si>
+  <si>
+    <t>Ground</t>
+  </si>
+  <si>
+    <t>ATAQUE DE AREIA</t>
+  </si>
+  <si>
+    <t>GUST</t>
+  </si>
+  <si>
+    <t>VENTANIA</t>
+  </si>
+  <si>
+    <t>SING</t>
+  </si>
+  <si>
+    <t>B.SLEEP</t>
+  </si>
+  <si>
+    <t>CANÇÃO</t>
+  </si>
+  <si>
+    <t>METRONOME</t>
+  </si>
+  <si>
+    <t>METRONOMO</t>
+  </si>
+  <si>
+    <t>AIR SLASH</t>
+  </si>
+  <si>
+    <t>GOLPE DE AR</t>
+  </si>
+  <si>
+    <t>DEFOG</t>
+  </si>
+  <si>
+    <t>DESNEBLINAR</t>
+  </si>
+  <si>
+    <t>PSYBEAM</t>
+  </si>
+  <si>
+    <t>Psychic</t>
+  </si>
+  <si>
+    <t>RAIO PSÍQUICO</t>
+  </si>
+  <si>
+    <t>THUNDER SHOCK</t>
+  </si>
+  <si>
+    <t>Electric</t>
+  </si>
+  <si>
+    <t>B.PARALYZE</t>
+  </si>
+  <si>
+    <t>CHOQUE TROVÃO</t>
+  </si>
+  <si>
+    <t>THUNDER PUNCH</t>
+  </si>
+  <si>
+    <t>SOCO TROVÃO</t>
+  </si>
+  <si>
+    <t>ELECTRIC BALL</t>
+  </si>
+  <si>
+    <t>W.HALFLEVEL</t>
+  </si>
+  <si>
+    <t>BOLA ELÉTRICA</t>
+  </si>
+  <si>
+    <t>SUPERSONIC</t>
+  </si>
+  <si>
+    <t>SUPERSÔNICO</t>
+  </si>
+  <si>
+    <t>DISABLE</t>
+  </si>
+  <si>
+    <t>DESABILITAR</t>
+  </si>
+  <si>
+    <t>MIRROR MOVE</t>
+  </si>
+  <si>
+    <t>MOVIMENTO ESPELHO</t>
+  </si>
+  <si>
+    <t>DRILL PECK</t>
+  </si>
+  <si>
+    <t>BICO BROCA</t>
+  </si>
+  <si>
+    <t>PECK</t>
+  </si>
+  <si>
+    <t>BICADA</t>
+  </si>
+  <si>
+    <t>ROAR</t>
+  </si>
+  <si>
+    <t>RUGIDO</t>
+  </si>
+  <si>
+    <t>ACID</t>
+  </si>
+  <si>
+    <t>ÁCIDO</t>
+  </si>
+  <si>
+    <t>BITE</t>
+  </si>
+  <si>
+    <t>Dark</t>
+  </si>
+  <si>
+    <t>MORDIDA</t>
+  </si>
+  <si>
+    <t>SWORD DANCE</t>
+  </si>
+  <si>
+    <t>W.THREEDICES</t>
+  </si>
+  <si>
+    <t>DANÇA DAS ESPADAS</t>
+  </si>
+  <si>
+    <t>GUILLOTINE</t>
+  </si>
+  <si>
+    <t>GUILHOTINA</t>
+  </si>
+  <si>
+    <t>SCREECH</t>
+  </si>
+  <si>
+    <t>RUÍDO</t>
+  </si>
+  <si>
+    <t>LOVELY KISS</t>
+  </si>
+  <si>
+    <t>BEIJO ADORÁVEL</t>
+  </si>
+  <si>
+    <t>SPLASH</t>
+  </si>
+  <si>
+    <t>RESPINGO</t>
+  </si>
+  <si>
+    <t>TRANSFORM</t>
+  </si>
+  <si>
+    <t>TRANSFORMAR</t>
+  </si>
+  <si>
+    <t>DIG</t>
+  </si>
+  <si>
+    <t>CAVAR</t>
+  </si>
+  <si>
+    <t>DOUBLE KICK</t>
+  </si>
+  <si>
+    <t>Fighting</t>
+  </si>
+  <si>
+    <t>CHUTE DUPLO</t>
+  </si>
+  <si>
+    <t>CONVERSION</t>
+  </si>
+  <si>
+    <t>CONVERSÃO</t>
+  </si>
+  <si>
     <t>TACKLE</t>
   </si>
   <si>
-    <t>Normal</t>
-  </si>
-  <si>
     <t>INVESTIDA</t>
   </si>
   <si>
-    <t>POISON POWDER</t>
-  </si>
-  <si>
-    <t>B.POISON</t>
-  </si>
-  <si>
-    <t>PÓ VENENOSO</t>
-  </si>
-  <si>
-    <t>RAZOR LEAF</t>
-  </si>
-  <si>
-    <t>FOLHA NAVALHA</t>
+    <t>QUICK ATTACK</t>
+  </si>
+  <si>
+    <t>W.FIRST</t>
+  </si>
+  <si>
+    <t>ATAQUE RÁPIDO</t>
+  </si>
+  <si>
+    <t>WRAP</t>
+  </si>
+  <si>
+    <t>ENRROLAR</t>
+  </si>
+  <si>
+    <t>SCRATCH</t>
+  </si>
+  <si>
+    <t>ARRANHAR</t>
+  </si>
+  <si>
+    <t>FIRE SPIN</t>
+  </si>
+  <si>
+    <t>CÍRCULO DE FOGO</t>
+  </si>
+  <si>
+    <t>DISARMING VOICE</t>
+  </si>
+  <si>
+    <t>Fairy</t>
+  </si>
+  <si>
+    <t>W.PRECISION</t>
+  </si>
+  <si>
+    <t>VOZ DESARMANTE</t>
+  </si>
+  <si>
+    <t>PLAY ROUGH</t>
+  </si>
+  <si>
+    <t>BRIGAR</t>
+  </si>
+  <si>
+    <t>POUND</t>
+  </si>
+  <si>
+    <t>TAPA</t>
+  </si>
+  <si>
+    <t>ANTONISH</t>
+  </si>
+  <si>
+    <t>Ghost</t>
+  </si>
+  <si>
+    <t>ASSUSTAR</t>
+  </si>
+  <si>
+    <t>POISON FANG</t>
+  </si>
+  <si>
+    <t>PRESA VENENO</t>
+  </si>
+  <si>
+    <t>AIR CUTTER</t>
+  </si>
+  <si>
+    <t>AR CORTANTE</t>
+  </si>
+  <si>
+    <t>ABSORB</t>
+  </si>
+  <si>
+    <t>ABSORÇÃO</t>
+  </si>
+  <si>
+    <t>STUN SPORE</t>
+  </si>
+  <si>
+    <t>PÓ ATORDOANTE</t>
+  </si>
+  <si>
+    <t>PETAL DANCE</t>
+  </si>
+  <si>
+    <t>W.SLEEP</t>
+  </si>
+  <si>
+    <t>DANÇA DE PÉTALAS</t>
+  </si>
+  <si>
+    <t>SLUDGE WAVE</t>
+  </si>
+  <si>
+    <t>ONDA DE LAMA</t>
+  </si>
+  <si>
+    <t>SPORE</t>
+  </si>
+  <si>
+    <t>ESPOROS</t>
+  </si>
+  <si>
+    <t>CONFUSION</t>
+  </si>
+  <si>
+    <t>CONFUSÃO</t>
+  </si>
+  <si>
+    <t>SLEEP POWDER</t>
+  </si>
+  <si>
+    <t>PÓ DO SONO</t>
+  </si>
+  <si>
+    <t>LEECH LIFE</t>
+  </si>
+  <si>
+    <t>W.LIFE</t>
+  </si>
+  <si>
+    <t>DRENO DE VIDA</t>
+  </si>
+  <si>
+    <t>EARTHQUAKE</t>
+  </si>
+  <si>
+    <t>TERREMOTO</t>
+  </si>
+  <si>
+    <t>DOUBLE SLAP</t>
+  </si>
+  <si>
+    <t>TAPA DUPLO</t>
+  </si>
+  <si>
+    <t>PAY DAY</t>
+  </si>
+  <si>
+    <t>W.CARD</t>
+  </si>
+  <si>
+    <t>DIA DE PAGAMENTO</t>
+  </si>
+  <si>
+    <t>FURY SWIPES</t>
+  </si>
+  <si>
+    <t>GOLPES DE FÚRIA</t>
+  </si>
+  <si>
+    <t>WATER GUN</t>
+  </si>
+  <si>
+    <t>JATO D'ÁGUA</t>
+  </si>
+  <si>
+    <t>ZEN HEADBUTT</t>
+  </si>
+  <si>
+    <t>CABEÇADA ZEN</t>
+  </si>
+  <si>
+    <t>LOW KICK</t>
+  </si>
+  <si>
+    <t>CHUTE BAIXO</t>
+  </si>
+  <si>
+    <t>SEISMIC TOSS</t>
+  </si>
+  <si>
+    <t>ABALO SÍSMICO</t>
+  </si>
+  <si>
+    <t>BARRAGE</t>
+  </si>
+  <si>
+    <t>BARRAGEM</t>
+  </si>
+  <si>
+    <t>HYPNOSIS</t>
+  </si>
+  <si>
+    <t>HIPNOSE</t>
+  </si>
+  <si>
+    <t>AMNESIA</t>
+  </si>
+  <si>
+    <t>B.THREEDICES</t>
+  </si>
+  <si>
+    <t>AMNÉSIA</t>
+  </si>
+  <si>
+    <t>TELEPORT</t>
+  </si>
+  <si>
+    <t>TELEPORTE</t>
+  </si>
+  <si>
+    <t>PSYSHOCK</t>
+  </si>
+  <si>
+    <t>CHOQUE PSÍQUICO</t>
+  </si>
+  <si>
+    <t>DUAL CHOP</t>
+  </si>
+  <si>
+    <t>Dragon</t>
+  </si>
+  <si>
+    <t>PANCADA DUPLA</t>
+  </si>
+  <si>
+    <t>KARATE CHOP</t>
+  </si>
+  <si>
+    <t>GOLPE KARATÊ</t>
+  </si>
+  <si>
+    <t>CROSS CHOP</t>
+  </si>
+  <si>
+    <t>GOLPE CRUZADO</t>
+  </si>
+  <si>
+    <t>RAGE</t>
+  </si>
+  <si>
+    <t>W.FURY</t>
+  </si>
+  <si>
+    <t>FÚRIA</t>
+  </si>
+  <si>
+    <t>BULLDOZE</t>
+  </si>
+  <si>
+    <t>TREMOR</t>
+  </si>
+  <si>
+    <t>SMACK DOWN</t>
+  </si>
+  <si>
+    <t>Rock</t>
+  </si>
+  <si>
+    <t>DERRUBADA</t>
+  </si>
+  <si>
+    <t>SLASH</t>
+  </si>
+  <si>
+    <t>RETALHAR</t>
+  </si>
+  <si>
+    <t>ROCK BLAST</t>
+  </si>
+  <si>
+    <t>EXPLOSÃO DE ROCHA</t>
+  </si>
+  <si>
+    <t>HEAVY SLAM</t>
+  </si>
+  <si>
+    <t>Steel</t>
+  </si>
+  <si>
+    <t>GOLPE PESADO</t>
+  </si>
+  <si>
+    <t>HYPER FANG</t>
+  </si>
+  <si>
+    <t>MEGA PRESA</t>
+  </si>
+  <si>
+    <t>PSYCHO CUT</t>
+  </si>
+  <si>
+    <t>CORTE PSÍQUICO</t>
+  </si>
+  <si>
+    <t>HORN ATTACK</t>
+  </si>
+  <si>
+    <t>ATAQUE DE CHIFRE</t>
+  </si>
+  <si>
+    <t>SWIFT</t>
+  </si>
+  <si>
+    <t>ATAQUE VELOZ</t>
+  </si>
+  <si>
+    <t>THUNDER</t>
+  </si>
+  <si>
+    <t>RELÂMPAGO</t>
+  </si>
+  <si>
+    <t>BODY SLAM</t>
+  </si>
+  <si>
+    <t>GOLPE DE CORPO</t>
+  </si>
+  <si>
+    <t>SLAM</t>
+  </si>
+  <si>
+    <t>PANCADA</t>
+  </si>
+  <si>
+    <t>AURORA BEAM</t>
+  </si>
+  <si>
+    <t>Ice</t>
+  </si>
+  <si>
+    <t>RAIO AURORA</t>
+  </si>
+  <si>
+    <t>ICE BEAM</t>
+  </si>
+  <si>
+    <t>B.FREEZE</t>
+  </si>
+  <si>
+    <t>RAIO DE GELO</t>
+  </si>
+  <si>
+    <t>TAKE DOWN</t>
+  </si>
+  <si>
+    <t>W.KO</t>
+  </si>
+  <si>
+    <t>QUEDA DE CORPO</t>
+  </si>
+  <si>
+    <t>TOXIC</t>
+  </si>
+  <si>
+    <t>TÓXICO</t>
+  </si>
+  <si>
+    <t>ACID ARMOR</t>
+  </si>
+  <si>
+    <t>ARMADURA ÁCIDA</t>
+  </si>
+  <si>
+    <t>GUNK SHOT</t>
+  </si>
+  <si>
+    <t>TIRO DE SUJEIRA</t>
+  </si>
+  <si>
+    <t>CLAMP</t>
+  </si>
+  <si>
+    <t>PRENDER</t>
+  </si>
+  <si>
+    <t>LICK</t>
+  </si>
+  <si>
+    <t>LAMBIDA</t>
+  </si>
+  <si>
+    <t>SHADOW PUNCH</t>
+  </si>
+  <si>
+    <t>SOCO SOMBRIO</t>
+  </si>
+  <si>
+    <t>DARK PULSE</t>
+  </si>
+  <si>
+    <t>PULSO SOMBRIO</t>
+  </si>
+  <si>
+    <t>SHADOW BALL</t>
+  </si>
+  <si>
+    <t>BOLA SOMBRIA</t>
+  </si>
+  <si>
+    <t>FISSURE</t>
+  </si>
+  <si>
+    <t>FISSURA</t>
+  </si>
+  <si>
+    <t>ROCK SLIDE</t>
+  </si>
+  <si>
+    <t>DESLIZE DE PEDRA</t>
+  </si>
+  <si>
+    <t>PSYCHIC</t>
+  </si>
+  <si>
+    <t>PSÍQUICO</t>
+  </si>
+  <si>
+    <t>STOMP</t>
+  </si>
+  <si>
+    <t>PISOTEAR</t>
+  </si>
+  <si>
+    <t>CRABHAMMER</t>
+  </si>
+  <si>
+    <t>GARRA MARTELO</t>
+  </si>
+  <si>
+    <t>TRI ATTACK</t>
+  </si>
+  <si>
+    <t>ATAQUE TRIPLO</t>
+  </si>
+  <si>
+    <t>HEADBUTT</t>
+  </si>
+  <si>
+    <t>CABEÇADA</t>
+  </si>
+  <si>
+    <t>LIGHT SCREEN</t>
+  </si>
+  <si>
+    <t>TELA DE LUZ</t>
+  </si>
+  <si>
+    <t>VISE GRIP</t>
+  </si>
+  <si>
+    <t>APERTO COM GARRA</t>
+  </si>
+  <si>
+    <t>BONE CLUB</t>
+  </si>
+  <si>
+    <t>CLAVA DE OSSO</t>
+  </si>
+  <si>
+    <t>BONEMERANG</t>
+  </si>
+  <si>
+    <t>OSSO BUMERANGUE</t>
+  </si>
+  <si>
+    <t>MEGA PUNCH</t>
+  </si>
+  <si>
+    <t>MEGA SOCO</t>
+  </si>
+  <si>
+    <t>DIZZY PUNCH</t>
+  </si>
+  <si>
+    <t>SOCO ATORDOANTE</t>
   </si>
   <si>
     <t>DOUBLE-EDGE</t>
   </si>
   <si>
-    <t>W.KO</t>
-  </si>
-  <si>
     <t>PONTADA DUPLA</t>
   </si>
   <si>
-    <t>SOLAR BEAM</t>
-  </si>
-  <si>
-    <t>RECHARGE</t>
-  </si>
-  <si>
-    <t>RAIO SOLAR</t>
-  </si>
-  <si>
-    <t>EMBER</t>
-  </si>
-  <si>
-    <t>Fire</t>
-  </si>
-  <si>
-    <t>B.BURN</t>
-  </si>
-  <si>
-    <t>BRASA</t>
-  </si>
-  <si>
-    <t>GROWL</t>
-  </si>
-  <si>
-    <t>B.TWODICES</t>
-  </si>
-  <si>
-    <t>ROSNADO</t>
-  </si>
-  <si>
-    <t>FLAMETHROWER</t>
-  </si>
-  <si>
-    <t>LANÇA-CHAMAS</t>
-  </si>
-  <si>
-    <t>SLASH</t>
-  </si>
-  <si>
-    <t>RETALHAR</t>
-  </si>
-  <si>
-    <t>FIRE BURST</t>
-  </si>
-  <si>
-    <t>EXPLOSÃO DE FOGO</t>
-  </si>
-  <si>
-    <t>WING ATTACK</t>
-  </si>
-  <si>
-    <t>Flying</t>
-  </si>
-  <si>
-    <t>ATAQUE DE ASA</t>
-  </si>
-  <si>
-    <t>TAIL WHIP</t>
-  </si>
-  <si>
-    <t>W.TWODICES</t>
-  </si>
-  <si>
-    <t>CAUDA CHICOTE</t>
-  </si>
-  <si>
-    <t>BUBBLE</t>
-  </si>
-  <si>
-    <t>Water</t>
-  </si>
-  <si>
-    <t>BOLHAS</t>
-  </si>
-  <si>
-    <t>RAIN DANCE</t>
-  </si>
-  <si>
-    <t>RAIN</t>
-  </si>
-  <si>
-    <t>DANÇA DA CHUVA</t>
-  </si>
-  <si>
-    <t>WATER PULSE</t>
-  </si>
-  <si>
-    <t>B.CONFUSION</t>
-  </si>
-  <si>
-    <t>PULSO D'ÁGUA</t>
+    <t>COUNTER</t>
+  </si>
+  <si>
+    <t>CONTRA-ATAQUE</t>
+  </si>
+  <si>
+    <t>SMOG</t>
+  </si>
+  <si>
+    <t>POLUIÇÃO</t>
+  </si>
+  <si>
+    <t>POISON GAS</t>
+  </si>
+  <si>
+    <t>GÁS VENENOSO</t>
+  </si>
+  <si>
+    <t>SLUDGE BOMB</t>
+  </si>
+  <si>
+    <t>BOMBA DE LODO</t>
+  </si>
+  <si>
+    <t>DRILL RUN</t>
+  </si>
+  <si>
+    <t>BROCA VELOZ</t>
+  </si>
+  <si>
+    <t>STONE EDGE</t>
+  </si>
+  <si>
+    <t>GUME DE PEDRA</t>
   </si>
   <si>
     <t>SKULL SMASH</t>
@@ -200,208 +968,64 @@
     <t>QUEBRA-CRÂNIO</t>
   </si>
   <si>
-    <t>HYDRO PUMP</t>
-  </si>
-  <si>
-    <t>HIDRO-BOMBA</t>
-  </si>
-  <si>
-    <t>STRING SHOT</t>
-  </si>
-  <si>
-    <t>Bug</t>
-  </si>
-  <si>
-    <t>TIRO DE ESTILINGUE</t>
-  </si>
-  <si>
-    <t>POISON STING</t>
-  </si>
-  <si>
-    <t>Poison</t>
-  </si>
-  <si>
-    <t>PICADA VENENOSA</t>
-  </si>
-  <si>
-    <t>HARDEN</t>
-  </si>
-  <si>
-    <t>ENDURECER</t>
-  </si>
-  <si>
-    <t>VENOSHOCK</t>
-  </si>
-  <si>
-    <t>ESPECIAL</t>
-  </si>
-  <si>
-    <t>VENOCHOQUE</t>
-  </si>
-  <si>
-    <t>PIN MISSILE</t>
-  </si>
-  <si>
-    <t>W.SOMADICES</t>
-  </si>
-  <si>
-    <t>MÍSSIL ESPINHO</t>
-  </si>
-  <si>
-    <t>SAND ATTACK</t>
-  </si>
-  <si>
-    <t>Ground</t>
-  </si>
-  <si>
-    <t>ATAQUE DE AREIA</t>
-  </si>
-  <si>
-    <t>GUST</t>
-  </si>
-  <si>
-    <t>VENTANIA</t>
-  </si>
-  <si>
-    <t>QUICK ATTACK</t>
-  </si>
-  <si>
-    <t>W.FIRST</t>
-  </si>
-  <si>
-    <t>ATAQUE RÁPIDO</t>
-  </si>
-  <si>
-    <t>WHIRWIND</t>
-  </si>
-  <si>
-    <t>B.CHANGE</t>
-  </si>
-  <si>
-    <t>RAJADA DE VENTO</t>
-  </si>
-  <si>
-    <t>AIR SLASH</t>
-  </si>
-  <si>
-    <t>GOLPE DE AR</t>
-  </si>
-  <si>
-    <t>DEFOG</t>
-  </si>
-  <si>
-    <t>DESNEBLINAR</t>
-  </si>
-  <si>
-    <t>PSYBEAM</t>
-  </si>
-  <si>
-    <t>Psychic</t>
-  </si>
-  <si>
-    <t>RAIO PSÍQUICO</t>
-  </si>
-  <si>
-    <t>THUNDER SHOCK</t>
-  </si>
-  <si>
-    <t>Electric</t>
-  </si>
-  <si>
-    <t>B.PARALYZE</t>
-  </si>
-  <si>
-    <t>CHOQUE TROVÃO</t>
-  </si>
-  <si>
-    <t>THUNDER PUNCH</t>
-  </si>
-  <si>
-    <t>SOCO TROVÃO</t>
-  </si>
-  <si>
-    <t>ELECTRIC BALL</t>
-  </si>
-  <si>
-    <t>W.HALFLEVEL</t>
-  </si>
-  <si>
-    <t>BOLA ELÉTRICA</t>
-  </si>
-  <si>
-    <t>HYPER FANG</t>
-  </si>
-  <si>
-    <t>MEGA PRESA</t>
-  </si>
-  <si>
-    <t>SUPER FANG</t>
-  </si>
-  <si>
-    <t>B.HALFLEVEL</t>
-  </si>
-  <si>
-    <t>SUPER PRESA</t>
-  </si>
-  <si>
-    <t>MIRROR MOVE</t>
-  </si>
-  <si>
-    <t>DRILL PECK</t>
-  </si>
-  <si>
-    <t>PECK</t>
-  </si>
-  <si>
-    <t>BICADA</t>
-  </si>
-  <si>
-    <t>LEER</t>
-  </si>
-  <si>
-    <t>ENCARAR</t>
-  </si>
-  <si>
-    <t>ACID</t>
-  </si>
-  <si>
-    <t>ÁCIDO</t>
-  </si>
-  <si>
-    <t>BITE</t>
-  </si>
-  <si>
-    <t>Dark</t>
-  </si>
-  <si>
-    <t>MORDIDA</t>
-  </si>
-  <si>
-    <t>WRAP</t>
-  </si>
-  <si>
-    <t>ENRROLAR</t>
-  </si>
-  <si>
-    <t>SCRATCH</t>
-  </si>
-  <si>
-    <t>ARRANHAR</t>
-  </si>
-  <si>
-    <t>HORN ATTACK</t>
-  </si>
-  <si>
-    <t>ATAQUE DE CHIFRE</t>
-  </si>
-  <si>
-    <t>HORN DRILL</t>
-  </si>
-  <si>
-    <t>B.KO</t>
-  </si>
-  <si>
-    <t>CHIFRE BROCA</t>
+    <t>TWISTER</t>
+  </si>
+  <si>
+    <t>TORNADO</t>
+  </si>
+  <si>
+    <t>DRAGON PULSE</t>
+  </si>
+  <si>
+    <t>PULSO DO DRAGÃO</t>
+  </si>
+  <si>
+    <t>SCALD</t>
+  </si>
+  <si>
+    <t>ESCALDAR</t>
+  </si>
+  <si>
+    <t>MEGA HORN</t>
+  </si>
+  <si>
+    <t>MEGA CHIFRE</t>
+  </si>
+  <si>
+    <t>WATERFALL</t>
+  </si>
+  <si>
+    <t>CACHOEIRA</t>
+  </si>
+  <si>
+    <t>BARRIER</t>
+  </si>
+  <si>
+    <t>BARREIRA</t>
+  </si>
+  <si>
+    <t>FURY CUTTER</t>
+  </si>
+  <si>
+    <t>FÚRIA CORTANTE</t>
+  </si>
+  <si>
+    <t>ICE PUNCH</t>
+  </si>
+  <si>
+    <t>PUNHO DE GELO</t>
+  </si>
+  <si>
+    <t>X-SCISSOR</t>
+  </si>
+  <si>
+    <t>TESOURA X</t>
+  </si>
+  <si>
+    <t>FIRE PUNCH</t>
+  </si>
+  <si>
+    <t>PUNHO DE FOGO</t>
   </si>
   <si>
     <t>THRASH</t>
@@ -410,179 +1034,114 @@
     <t>W.CONFUSION</t>
   </si>
   <si>
-    <t>SWIFT</t>
-  </si>
-  <si>
-    <t>W.PRECISION</t>
-  </si>
-  <si>
-    <t>ATAQUE SURPRESA</t>
-  </si>
-  <si>
-    <t>DIG</t>
-  </si>
-  <si>
-    <t>CAVAR</t>
-  </si>
-  <si>
-    <t>DOUBLE KICK</t>
-  </si>
-  <si>
-    <t>Fighting</t>
-  </si>
-  <si>
-    <t>CHUTE DUPLO</t>
-  </si>
-  <si>
-    <t>BODYSLAM</t>
-  </si>
-  <si>
-    <t>GOLPE DE CORPO</t>
-  </si>
-  <si>
-    <t>SING</t>
-  </si>
-  <si>
-    <t>B.SLEEP</t>
-  </si>
-  <si>
-    <t>CANÇÃO</t>
-  </si>
-  <si>
-    <t>POUND</t>
-  </si>
-  <si>
-    <t>TAPA</t>
-  </si>
-  <si>
-    <t>DOUBLE SLAP</t>
-  </si>
-  <si>
-    <t>TAPA DUPLO</t>
-  </si>
-  <si>
-    <t>METRONOME</t>
-  </si>
-  <si>
-    <t>METRONOMO</t>
-  </si>
-  <si>
-    <t>FIRE SPIN</t>
-  </si>
-  <si>
-    <t>CÍRCULO DE FOGO</t>
-  </si>
-  <si>
-    <t>DISARMING VOICE</t>
-  </si>
-  <si>
-    <t>Fairy</t>
-  </si>
-  <si>
-    <t>VOZ DESARMANTE</t>
-  </si>
-  <si>
-    <t>PLAY ROUGH</t>
-  </si>
-  <si>
-    <t>BRIGAR</t>
-  </si>
-  <si>
-    <t>SUPERSONIC</t>
-  </si>
-  <si>
-    <t>SUPERSÔNICO</t>
-  </si>
-  <si>
-    <t>ANTONISH</t>
-  </si>
-  <si>
-    <t>Ghost</t>
-  </si>
-  <si>
-    <t>ASSUSTAR</t>
-  </si>
-  <si>
-    <t>POISON FANG</t>
-  </si>
-  <si>
-    <t>PRESA VENENO</t>
-  </si>
-  <si>
-    <t>AIR CUTTER</t>
-  </si>
-  <si>
-    <t>AR CORTANTE</t>
-  </si>
-  <si>
-    <t>ABSORB</t>
-  </si>
-  <si>
-    <t>ABSORÇÃO</t>
-  </si>
-  <si>
-    <t>STUN SPORE</t>
-  </si>
-  <si>
-    <t>PÓ ATORDOANTE</t>
-  </si>
-  <si>
-    <t>PETAL DANCE</t>
-  </si>
-  <si>
-    <t>W.SLEEP</t>
-  </si>
-  <si>
-    <t>DANÇA DE PÉTALAS</t>
-  </si>
-  <si>
-    <t>SLUDGE WAVE</t>
-  </si>
-  <si>
-    <t>ONDA DE LAMA</t>
-  </si>
-  <si>
-    <t>SPORE</t>
-  </si>
-  <si>
-    <t>ESPOROS</t>
-  </si>
-  <si>
-    <t>CONFUSION</t>
-  </si>
-  <si>
-    <t>CONFUSÃO</t>
-  </si>
-  <si>
-    <t>SLEEP POWDER</t>
-  </si>
-  <si>
-    <t>PÓ DO SONO</t>
-  </si>
-  <si>
-    <t>LEECH LIFE</t>
-  </si>
-  <si>
-    <t>W.LIFE</t>
-  </si>
-  <si>
-    <t>DRENO DE VIDA</t>
-  </si>
-  <si>
-    <t>MOVIMENTO ESPELHO</t>
-  </si>
-  <si>
-    <t>BICADA FURADEIRA</t>
+    <t>CASTIGAR</t>
+  </si>
+  <si>
+    <t>HYPER BEAM</t>
+  </si>
+  <si>
+    <t>HIPER-RAIO</t>
+  </si>
+  <si>
+    <t>MEGA KICK</t>
+  </si>
+  <si>
+    <t>MEGA CHUTE</t>
+  </si>
+  <si>
+    <t>HURRICANE</t>
+  </si>
+  <si>
+    <t>FURAÇÃO</t>
+  </si>
+  <si>
+    <t>SELF-DESTRUCT</t>
+  </si>
+  <si>
+    <t>AUTODESTRUIÇÃO</t>
+  </si>
+  <si>
+    <t>THUNDER WAVE</t>
+  </si>
+  <si>
+    <t>ONDA TROVÃO</t>
+  </si>
+  <si>
+    <t>EXPLOSION</t>
+  </si>
+  <si>
+    <t>EXPLOSÃO</t>
+  </si>
+  <si>
+    <t>ROLLOUT</t>
+  </si>
+  <si>
+    <t>ROLAGEM</t>
+  </si>
+  <si>
+    <t>CRUNCH</t>
+  </si>
+  <si>
+    <t>MASTIGADA</t>
+  </si>
+  <si>
+    <t>AQUA JET</t>
+  </si>
+  <si>
+    <t>AQUA JATO</t>
+  </si>
+  <si>
+    <t>ANCIENT POWER</t>
+  </si>
+  <si>
+    <t>W.TWODICES;B.TWODICES</t>
+  </si>
+  <si>
+    <t>PODER ANTIGO</t>
+  </si>
+  <si>
+    <t>AURA SPHERE</t>
+  </si>
+  <si>
+    <t>AURA ESFÉRICA</t>
+  </si>
+  <si>
+    <t>BLIZZARD</t>
+  </si>
+  <si>
+    <t>NEVASCA</t>
+  </si>
+  <si>
+    <t>SKY ATTACK</t>
+  </si>
+  <si>
+    <t>B.TWODICES;RECHARGE</t>
+  </si>
+  <si>
+    <t>ATAQUE DO CÉU</t>
+  </si>
+  <si>
+    <t>DRAGON RAGE</t>
+  </si>
+  <si>
+    <t>W.IMMUNE.TYPE</t>
+  </si>
+  <si>
+    <t>FÚRIA DO DRAGÃO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0_);[Red]\(0\)"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -590,16 +1149,353 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -607,27 +1503,313 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Moeda" xfId="2" builtinId="4"/>
+    <cellStyle name="Porcentagem" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Moeda [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Hyperlink seguido" xfId="7" builtinId="9"/>
+    <cellStyle name="Observação" xfId="8" builtinId="10"/>
+    <cellStyle name="Texto de Aviso" xfId="9" builtinId="11"/>
+    <cellStyle name="Título" xfId="10" builtinId="15"/>
+    <cellStyle name="Texto Explicativo" xfId="11" builtinId="53"/>
+    <cellStyle name="Título 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Título 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Título 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Título 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Entrada" xfId="16" builtinId="20"/>
+    <cellStyle name="Saída" xfId="17" builtinId="21"/>
+    <cellStyle name="Cálculo" xfId="18" builtinId="22"/>
+    <cellStyle name="Célula de Verificação" xfId="19" builtinId="23"/>
+    <cellStyle name="Célula Vinculada" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Bom" xfId="22" builtinId="26"/>
+    <cellStyle name="Ruim" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutro" xfId="24" builtinId="28"/>
+    <cellStyle name="Ênfase 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Ênfase 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Ênfase 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Ênfase 1" xfId="28" builtinId="32"/>
+    <cellStyle name="Ênfase 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Ênfase 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Ênfase 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Ênfase 2" xfId="32" builtinId="36"/>
+    <cellStyle name="Ênfase 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Ênfase 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Ênfase 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Ênfase 3" xfId="36" builtinId="40"/>
+    <cellStyle name="Ênfase 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Ênfase 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Ênfase 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Ênfase 4" xfId="40" builtinId="44"/>
+    <cellStyle name="Ênfase 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Ênfase 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Ênfase 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Ênfase 5" xfId="44" builtinId="48"/>
+    <cellStyle name="Ênfase 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Ênfase 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Ênfase 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Ênfase 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="2">
     <dxf>
-      <numFmt numFmtId="164" formatCode="0_);[Red]\(0\)"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF9900"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="180" formatCode="0_);[Red]\(0\)"/>
     </dxf>
     <dxf>
       <fill>
@@ -647,8 +1829,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J70" totalsRowShown="0">
-  <autoFilter ref="A1:J70"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:J157" totalsRowShown="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:J157" etc:filterBottomFollowUsedRange="0">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="Normal"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <sortState ref="A2:J157">
+    <sortCondition ref="C1"/>
+  </sortState>
   <tableColumns count="10">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="NAME"/>
@@ -917,29 +2108,31 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J70"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="D98" sqref="D98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.140625" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.5703125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" customWidth="1"/>
+    <col min="1" max="1" width="7.28571428571429" customWidth="1"/>
+    <col min="2" max="2" width="17.4285714285714" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="5" max="5" width="5.14285714285714" customWidth="1"/>
+    <col min="6" max="6" width="26.7142857142857" customWidth="1"/>
+    <col min="7" max="7" width="5.57142857142857" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21" customWidth="1"/>
+    <col min="9" max="9" width="14.2857142857143" customWidth="1"/>
+    <col min="10" max="10" width="14.5714285714286" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -974,7 +2167,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" hidden="1" spans="1:8">
       <c r="A2">
         <v>1</v>
       </c>
@@ -991,29 +2184,32 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:8">
       <c r="A3">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="s">
         <v>14</v>
       </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
       <c r="H3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" hidden="1" spans="1:8">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1022,21 +2218,21 @@
         <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G4" s="1">
         <v>3</v>
       </c>
       <c r="H4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" hidden="1" spans="1:8">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -1048,38 +2244,36 @@
         <v>8</v>
       </c>
       <c r="H5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="1">
-        <v>6</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G6" s="1"/>
       <c r="H6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" hidden="1" spans="1:8">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7">
         <v>3</v>
@@ -1088,41 +2282,41 @@
         <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" hidden="1" spans="1:8">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G8" s="1">
         <v>6</v>
       </c>
       <c r="H8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -1131,13 +2325,13 @@
         <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" hidden="1" spans="1:8">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1148,10 +2342,10 @@
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G10" s="1">
         <v>6</v>
@@ -1160,72 +2354,72 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:8">
       <c r="A11">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D11" t="s">
         <v>14</v>
       </c>
-      <c r="E11">
-        <v>8</v>
+      <c r="F11" t="s">
+        <v>37</v>
       </c>
       <c r="H11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" hidden="1" spans="1:8">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C12">
         <v>3</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G12" s="1">
         <v>6</v>
       </c>
       <c r="H12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" hidden="1" spans="1:8">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C13">
         <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1234,155 +2428,155 @@
         <v>14</v>
       </c>
       <c r="F14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H14" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" hidden="1" spans="1:8">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H15" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" hidden="1" spans="1:8">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" hidden="1" spans="1:8">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C17">
         <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G17" s="1">
         <v>6</v>
       </c>
       <c r="H17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="B18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D18" t="s">
         <v>14</v>
       </c>
       <c r="F18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H18" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" hidden="1" spans="1:8">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C19">
         <v>3</v>
       </c>
       <c r="D19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H19" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" hidden="1" spans="1:8">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H20" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" hidden="1" spans="1:8">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G21" s="1">
         <v>5</v>
       </c>
       <c r="H21" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="B22" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -1391,121 +2585,127 @@
         <v>14</v>
       </c>
       <c r="F22" t="s">
-        <v>32</v>
+        <v>67</v>
+      </c>
+      <c r="G22" s="1">
+        <v>5</v>
       </c>
       <c r="H22" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" hidden="1" spans="1:8">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F23" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H23" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" hidden="1" spans="1:8">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E24">
         <v>4</v>
       </c>
       <c r="F24" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G24" s="1">
         <v>4</v>
       </c>
       <c r="H24" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" hidden="1" spans="1:8">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F25" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="H25" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" hidden="1" spans="1:8">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H26" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="B27" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27" t="s">
         <v>14</v>
       </c>
       <c r="F27" t="s">
-        <v>79</v>
+        <v>81</v>
+      </c>
+      <c r="G27" s="1">
+        <v>4</v>
       </c>
       <c r="H27" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="B28" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -1514,170 +2714,173 @@
         <v>14</v>
       </c>
       <c r="F28" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="H28" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" hidden="1" spans="1:8">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C29">
         <v>2</v>
       </c>
       <c r="D29" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F29" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="G29" s="1">
         <v>5</v>
       </c>
       <c r="H29" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" hidden="1" spans="1:8">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C30">
         <v>0</v>
       </c>
       <c r="D30" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F30" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H30" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" hidden="1" spans="1:8">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C31">
         <v>2</v>
       </c>
       <c r="D31" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G31" s="1">
         <v>6</v>
       </c>
       <c r="H31" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" hidden="1" spans="1:8">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F32" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G32" s="1">
         <v>6</v>
       </c>
       <c r="H32" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="33" hidden="1" spans="1:8">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C33">
         <v>2</v>
       </c>
       <c r="D33" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F33" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G33" s="1">
         <v>6</v>
       </c>
       <c r="H33" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="34" hidden="1" spans="1:8">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C34">
         <v>0</v>
       </c>
       <c r="D34" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F34" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H34" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="B35" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D35" t="s">
         <v>14</v>
       </c>
       <c r="F35" t="s">
-        <v>32</v>
+        <v>54</v>
+      </c>
+      <c r="G35" s="1">
+        <v>4</v>
       </c>
       <c r="H35" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36">
-        <v>35</v>
+        <v>73</v>
       </c>
       <c r="B36" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -1686,13 +2889,13 @@
         <v>14</v>
       </c>
       <c r="F36" t="s">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="H36" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" hidden="1" spans="1:8">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1703,181 +2906,189 @@
         <v>0</v>
       </c>
       <c r="D37" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F37" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H37" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="38" hidden="1" spans="1:8">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C38">
         <v>2</v>
       </c>
       <c r="D38" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H38" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="39" hidden="1" spans="1:8">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C39">
         <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H39" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40" t="s">
-        <v>109</v>
-      </c>
-      <c r="C40">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="2">
+        <v>78</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C40" s="2">
         <v>0</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F40" t="s">
-        <v>44</v>
-      </c>
-      <c r="H40" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+      <c r="E40" s="2"/>
+      <c r="F40" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G40" s="3"/>
+      <c r="H40" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+    </row>
+    <row r="41" hidden="1" spans="1:8">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C41">
         <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F41" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="G41" s="1">
         <v>6</v>
       </c>
       <c r="H41" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="42" hidden="1" spans="1:8">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C42">
         <v>2</v>
       </c>
       <c r="D42" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F42" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="G42" s="1">
         <v>5</v>
       </c>
       <c r="H42" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43">
-        <v>42</v>
+      <c r="A43" s="2">
+        <v>97</v>
       </c>
       <c r="B43" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D43" t="s">
         <v>14</v>
       </c>
-      <c r="E43">
-        <v>4</v>
-      </c>
       <c r="F43" t="s">
-        <v>71</v>
-      </c>
-      <c r="G43" s="1">
-        <v>4</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G43" s="1"/>
       <c r="H43" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44">
-        <v>43</v>
+        <v>115</v>
       </c>
       <c r="B44" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D44" t="s">
         <v>14</v>
       </c>
+      <c r="F44" t="s">
+        <v>67</v>
+      </c>
+      <c r="G44" s="1">
+        <v>5</v>
+      </c>
       <c r="H44" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45">
-        <v>44</v>
+        <v>141</v>
       </c>
       <c r="B45" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C45">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D45" t="s">
         <v>14</v>
       </c>
+      <c r="F45" t="s">
+        <v>119</v>
+      </c>
       <c r="H45" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46">
-        <v>45</v>
+        <v>142</v>
       </c>
       <c r="B46" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -1886,144 +3097,133 @@
         <v>14</v>
       </c>
       <c r="F46" t="s">
-        <v>123</v>
+        <v>81</v>
       </c>
       <c r="G46" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H46" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47">
-        <v>46</v>
+        <v>143</v>
       </c>
       <c r="B47" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C47">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D47" t="s">
         <v>14</v>
       </c>
-      <c r="F47" t="s">
-        <v>126</v>
-      </c>
-      <c r="G47" s="1">
-        <v>5</v>
+      <c r="H47" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48">
-        <v>47</v>
+        <v>145</v>
       </c>
       <c r="B48" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C48">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D48" t="s">
         <v>14</v>
       </c>
       <c r="F48" t="s">
-        <v>128</v>
+        <v>70</v>
       </c>
       <c r="H48" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="49" hidden="1" spans="1:8">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C49">
         <v>2</v>
       </c>
       <c r="D49" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H49" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="50" hidden="1" spans="1:8">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C50">
         <v>1</v>
       </c>
       <c r="D50" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E50">
         <v>4</v>
       </c>
       <c r="F50" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H50" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51">
-        <v>50</v>
+        <v>147</v>
       </c>
       <c r="B51" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C51">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D51" t="s">
         <v>14</v>
       </c>
       <c r="F51" t="s">
-        <v>93</v>
-      </c>
-      <c r="G51" s="1">
-        <v>5</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="G51" s="1"/>
       <c r="H51" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="B52" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D52" t="s">
         <v>14</v>
       </c>
-      <c r="F52" t="s">
-        <v>138</v>
-      </c>
-      <c r="G52" s="1">
-        <v>4</v>
-      </c>
       <c r="H52" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="B53" t="s">
         <v>140</v>
@@ -2034,16 +3234,19 @@
       <c r="D53" t="s">
         <v>14</v>
       </c>
+      <c r="F53" t="s">
+        <v>141</v>
+      </c>
       <c r="H53" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="B54" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -2055,199 +3258,190 @@
         <v>4</v>
       </c>
       <c r="F54" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G54" s="1">
         <v>4</v>
       </c>
       <c r="H54" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="B55" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D55" t="s">
         <v>14</v>
       </c>
-      <c r="F55" t="s">
-        <v>68</v>
-      </c>
       <c r="H55" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="56" hidden="1" spans="1:8">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C56">
         <v>1</v>
       </c>
       <c r="D56" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E56">
         <v>4</v>
       </c>
       <c r="F56" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G56" s="1">
         <v>4</v>
       </c>
       <c r="H56" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="57" hidden="1" spans="1:8">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C57">
         <v>1</v>
       </c>
       <c r="D57" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F57" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="H57" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="58" hidden="1" spans="1:8">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C58">
         <v>2</v>
       </c>
       <c r="D58" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F58" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="G58" s="1">
         <v>6</v>
       </c>
       <c r="H58" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B59" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D59" t="s">
         <v>14</v>
       </c>
-      <c r="F59" t="s">
-        <v>53</v>
-      </c>
-      <c r="G59" s="1">
-        <v>4</v>
-      </c>
       <c r="H59" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="60" hidden="1" spans="1:8">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C60">
         <v>0</v>
       </c>
       <c r="D60" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F60" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="G60" s="1">
         <v>5</v>
       </c>
       <c r="H60" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="61" hidden="1" spans="1:8">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C61">
         <v>2</v>
       </c>
       <c r="D61" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F61" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G61" s="1">
         <v>4</v>
       </c>
       <c r="H61" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="62" hidden="1" spans="1:8">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C62">
         <v>1</v>
       </c>
       <c r="D62" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E62">
         <v>8</v>
       </c>
       <c r="H62" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="63" hidden="1" spans="1:8">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -2256,15 +3450,15 @@
         <v>11</v>
       </c>
       <c r="H63" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="64" hidden="1" spans="1:8">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -2273,21 +3467,21 @@
         <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G64" s="1">
         <v>3</v>
       </c>
       <c r="H64" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="65" hidden="1" spans="1:8">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C65">
         <v>3</v>
@@ -2296,44 +3490,44 @@
         <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G65" s="1">
         <v>5</v>
       </c>
       <c r="H65" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="66" hidden="1" spans="1:8">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C66">
         <v>2</v>
       </c>
       <c r="D66" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F66" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G66" s="1">
         <v>6</v>
       </c>
       <c r="H66" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="67" hidden="1" spans="1:8">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -2342,41 +3536,41 @@
         <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>138</v>
+        <v>81</v>
       </c>
       <c r="H67" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="68" hidden="1" spans="1:8">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C68">
         <v>0</v>
       </c>
       <c r="D68" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F68" t="s">
-        <v>138</v>
+        <v>81</v>
       </c>
       <c r="G68" s="1">
         <v>6</v>
       </c>
       <c r="H68" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="69" hidden="1" spans="1:8">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -2385,43 +3579,1937 @@
         <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>138</v>
+        <v>81</v>
       </c>
       <c r="G69" s="1">
         <v>3</v>
       </c>
       <c r="H69" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="70" hidden="1" spans="1:8">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C70">
         <v>2</v>
       </c>
       <c r="D70" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F70" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H70" t="s">
-        <v>179</v>
+        <v>181</v>
+      </c>
+    </row>
+    <row r="71" hidden="1" spans="1:10">
+      <c r="A71" s="2">
+        <v>70</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C71" s="2">
+        <v>2</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="I71" s="2"/>
+      <c r="J71" s="2"/>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72">
+        <v>53</v>
+      </c>
+      <c r="B72" t="s">
+        <v>184</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72" t="s">
+        <v>14</v>
+      </c>
+      <c r="E72">
+        <v>4</v>
+      </c>
+      <c r="F72" t="s">
+        <v>73</v>
+      </c>
+      <c r="G72" s="1">
+        <v>4</v>
+      </c>
+      <c r="H72" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>186</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73" t="s">
+        <v>14</v>
+      </c>
+      <c r="F73" t="s">
+        <v>187</v>
+      </c>
+      <c r="G73" s="1">
+        <v>6</v>
+      </c>
+      <c r="H73" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>189</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74" t="s">
+        <v>14</v>
+      </c>
+      <c r="E74">
+        <v>4</v>
+      </c>
+      <c r="F74" t="s">
+        <v>73</v>
+      </c>
+      <c r="G74" s="1">
+        <v>4</v>
+      </c>
+      <c r="H74" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="75" hidden="1" spans="1:8">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>191</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75" t="s">
+        <v>48</v>
+      </c>
+      <c r="H75" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="76" hidden="1" spans="1:8">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>193</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76" t="s">
+        <v>90</v>
+      </c>
+      <c r="F76" t="s">
+        <v>15</v>
+      </c>
+      <c r="G76" s="1">
+        <v>6</v>
+      </c>
+      <c r="H76" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="77" hidden="1" spans="1:8">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>195</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="D77" t="s">
+        <v>134</v>
+      </c>
+      <c r="F77" t="s">
+        <v>15</v>
+      </c>
+      <c r="G77" s="1">
+        <v>6</v>
+      </c>
+      <c r="H77" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="78" hidden="1" spans="1:8">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>197</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78" t="s">
+        <v>134</v>
+      </c>
+      <c r="F78" t="s">
+        <v>45</v>
+      </c>
+      <c r="H78" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79">
+        <v>118</v>
+      </c>
+      <c r="B79" t="s">
+        <v>199</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="D79" t="s">
+        <v>14</v>
+      </c>
+      <c r="E79">
+        <v>4</v>
+      </c>
+      <c r="F79" t="s">
+        <v>73</v>
+      </c>
+      <c r="G79" s="1">
+        <v>4</v>
+      </c>
+      <c r="H79" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="80" hidden="1" spans="1:10">
+      <c r="A80" s="2">
+        <v>79</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C80" s="2">
+        <v>0</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G80" s="3">
+        <v>4</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="I80" s="2"/>
+      <c r="J80" s="2"/>
+    </row>
+    <row r="81" hidden="1" spans="1:10">
+      <c r="A81" s="2">
+        <v>80</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C81" s="2">
+        <v>0</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="G81" s="3"/>
+      <c r="H81" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="I81" s="2"/>
+      <c r="J81" s="2"/>
+    </row>
+    <row r="82" hidden="1" spans="1:8">
+      <c r="A82" s="2">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>206</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82" t="s">
+        <v>90</v>
+      </c>
+      <c r="H82" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="83" hidden="1" spans="1:8">
+      <c r="A83" s="2">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>208</v>
+      </c>
+      <c r="C83">
+        <v>2</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H83" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="84" hidden="1" spans="1:8">
+      <c r="A84" s="2">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>210</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+      <c r="D84" t="s">
+        <v>211</v>
+      </c>
+      <c r="E84">
+        <v>4</v>
+      </c>
+      <c r="F84" t="s">
+        <v>73</v>
+      </c>
+      <c r="H84" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="85" hidden="1" spans="1:8">
+      <c r="A85" s="2">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>213</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="D85" t="s">
+        <v>134</v>
+      </c>
+      <c r="E85">
+        <v>8</v>
+      </c>
+      <c r="H85" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="86" hidden="1" spans="1:8">
+      <c r="A86" s="2">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>215</v>
+      </c>
+      <c r="C86">
+        <v>2</v>
+      </c>
+      <c r="D86" t="s">
+        <v>134</v>
+      </c>
+      <c r="E86">
+        <v>8</v>
+      </c>
+      <c r="H86" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87">
+        <v>121</v>
+      </c>
+      <c r="B87" t="s">
+        <v>217</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="D87" t="s">
+        <v>14</v>
+      </c>
+      <c r="F87" t="s">
+        <v>218</v>
+      </c>
+      <c r="H87" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="88" hidden="1" spans="1:10">
+      <c r="A88" s="2">
+        <v>87</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="C88" s="2">
+        <v>1</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E88" s="2"/>
+      <c r="F88" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G88" s="3">
+        <v>6</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="I88" s="2"/>
+      <c r="J88" s="2"/>
+    </row>
+    <row r="89" hidden="1" spans="1:10">
+      <c r="A89" s="2">
+        <v>88</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C89" s="2">
+        <v>1</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E89" s="2"/>
+      <c r="F89" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G89" s="3"/>
+      <c r="H89" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="I89" s="2"/>
+      <c r="J89" s="2"/>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90">
+        <v>10</v>
+      </c>
+      <c r="B90" t="s">
+        <v>225</v>
+      </c>
+      <c r="C90">
+        <v>2</v>
+      </c>
+      <c r="D90" t="s">
+        <v>14</v>
+      </c>
+      <c r="E90">
+        <v>8</v>
+      </c>
+      <c r="H90" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="91" hidden="1" spans="1:10">
+      <c r="A91" s="2">
+        <v>90</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C91" s="2">
+        <v>1</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E91" s="2">
+        <v>4</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G91" s="3">
+        <v>4</v>
+      </c>
+      <c r="H91" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="I91" s="2"/>
+      <c r="J91" s="2"/>
+    </row>
+    <row r="92" hidden="1" spans="1:10">
+      <c r="A92" s="2">
+        <v>91</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C92" s="2">
+        <v>0</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E92" s="2"/>
+      <c r="F92" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G92" s="3"/>
+      <c r="H92" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="I92" s="2"/>
+      <c r="J92" s="2"/>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93">
+        <v>34</v>
+      </c>
+      <c r="B93" t="s">
+        <v>232</v>
+      </c>
+      <c r="C93">
+        <v>2</v>
+      </c>
+      <c r="D93" t="s">
+        <v>14</v>
+      </c>
+      <c r="F93" t="s">
+        <v>15</v>
+      </c>
+      <c r="G93" s="1"/>
+      <c r="H93" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="94" hidden="1" spans="1:8">
+      <c r="A94" s="2">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>234</v>
+      </c>
+      <c r="C94">
+        <v>2</v>
+      </c>
+      <c r="D94" t="s">
+        <v>90</v>
+      </c>
+      <c r="E94">
+        <v>8</v>
+      </c>
+      <c r="H94" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95">
+        <v>44</v>
+      </c>
+      <c r="B95" t="s">
+        <v>236</v>
+      </c>
+      <c r="C95">
+        <v>2</v>
+      </c>
+      <c r="D95" t="s">
+        <v>14</v>
+      </c>
+      <c r="H95" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96">
+        <v>47</v>
+      </c>
+      <c r="B96" t="s">
+        <v>238</v>
+      </c>
+      <c r="C96">
+        <v>2</v>
+      </c>
+      <c r="D96" t="s">
+        <v>14</v>
+      </c>
+      <c r="F96" t="s">
+        <v>151</v>
+      </c>
+      <c r="G96" s="1"/>
+      <c r="H96" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="97" hidden="1" spans="1:10">
+      <c r="A97" s="2">
+        <v>96</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C97" s="2">
+        <v>2</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E97" s="2"/>
+      <c r="F97" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G97" s="3">
+        <v>6</v>
+      </c>
+      <c r="H97" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="I97" s="2"/>
+      <c r="J97" s="2"/>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98">
+        <v>50</v>
+      </c>
+      <c r="B98" t="s">
+        <v>242</v>
+      </c>
+      <c r="C98">
+        <v>2</v>
+      </c>
+      <c r="D98" t="s">
+        <v>14</v>
+      </c>
+      <c r="F98" t="s">
+        <v>94</v>
+      </c>
+      <c r="G98" s="1">
+        <v>5</v>
+      </c>
+      <c r="H98" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" s="2">
+        <v>86</v>
+      </c>
+      <c r="B99" t="s">
+        <v>244</v>
+      </c>
+      <c r="C99">
+        <v>2</v>
+      </c>
+      <c r="D99" t="s">
+        <v>14</v>
+      </c>
+      <c r="H99" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="100" hidden="1" spans="1:8">
+      <c r="A100" s="2">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>246</v>
+      </c>
+      <c r="C100">
+        <v>2</v>
+      </c>
+      <c r="D100" t="s">
+        <v>247</v>
+      </c>
+      <c r="F100" t="s">
+        <v>15</v>
+      </c>
+      <c r="G100" s="1">
+        <v>6</v>
+      </c>
+      <c r="H100" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="101" hidden="1" spans="1:8">
+      <c r="A101" s="2">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>249</v>
+      </c>
+      <c r="C101">
+        <v>2</v>
+      </c>
+      <c r="D101" t="s">
+        <v>247</v>
+      </c>
+      <c r="F101" t="s">
+        <v>250</v>
+      </c>
+      <c r="G101" s="1">
+        <v>6</v>
+      </c>
+      <c r="H101" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
+      <c r="A102" s="2">
+        <v>92</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C102" s="2">
+        <v>2</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E102" s="2"/>
+      <c r="F102" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="G102" s="3">
+        <v>6</v>
+      </c>
+      <c r="H102" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="I102" s="2"/>
+      <c r="J102" s="2"/>
+    </row>
+    <row r="103" hidden="1" spans="1:8">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>255</v>
+      </c>
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103" t="s">
+        <v>64</v>
+      </c>
+      <c r="F103" t="s">
+        <v>18</v>
+      </c>
+      <c r="G103" s="1">
+        <v>2</v>
+      </c>
+      <c r="H103" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="104" hidden="1" spans="1:8">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>257</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104" t="s">
+        <v>64</v>
+      </c>
+      <c r="F104" t="s">
+        <v>204</v>
+      </c>
+      <c r="H104" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="105" hidden="1" spans="1:8">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>259</v>
+      </c>
+      <c r="C105">
+        <v>3</v>
+      </c>
+      <c r="D105" t="s">
+        <v>64</v>
+      </c>
+      <c r="F105" t="s">
+        <v>18</v>
+      </c>
+      <c r="G105" s="1">
+        <v>5</v>
+      </c>
+      <c r="H105" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="106" hidden="1" spans="1:8">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>261</v>
+      </c>
+      <c r="C106">
+        <v>1</v>
+      </c>
+      <c r="D106" t="s">
+        <v>48</v>
+      </c>
+      <c r="E106">
+        <v>4</v>
+      </c>
+      <c r="F106" t="s">
+        <v>73</v>
+      </c>
+      <c r="G106" s="1">
+        <v>4</v>
+      </c>
+      <c r="H106" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="107" hidden="1" spans="1:8">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>263</v>
+      </c>
+      <c r="C107">
+        <v>1</v>
+      </c>
+      <c r="D107" t="s">
+        <v>158</v>
+      </c>
+      <c r="F107" t="s">
+        <v>94</v>
+      </c>
+      <c r="G107" s="1">
+        <v>5</v>
+      </c>
+      <c r="H107" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="108" hidden="1" spans="1:8">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>265</v>
+      </c>
+      <c r="C108">
+        <v>2</v>
+      </c>
+      <c r="D108" t="s">
+        <v>158</v>
+      </c>
+      <c r="F108" t="s">
+        <v>151</v>
+      </c>
+      <c r="H108" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="109" hidden="1" spans="1:8">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>267</v>
+      </c>
+      <c r="C109">
+        <v>2</v>
+      </c>
+      <c r="D109" t="s">
+        <v>116</v>
+      </c>
+      <c r="F109" t="s">
+        <v>15</v>
+      </c>
+      <c r="G109" s="1">
+        <v>6</v>
+      </c>
+      <c r="H109" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="110" hidden="1" spans="1:8">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>269</v>
+      </c>
+      <c r="C110">
+        <v>2</v>
+      </c>
+      <c r="D110" t="s">
+        <v>158</v>
+      </c>
+      <c r="F110" t="s">
+        <v>23</v>
+      </c>
+      <c r="G110" s="1">
+        <v>6</v>
+      </c>
+      <c r="H110" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="111" hidden="1" spans="1:8">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>271</v>
+      </c>
+      <c r="C111">
+        <v>0</v>
+      </c>
+      <c r="D111" t="s">
+        <v>76</v>
+      </c>
+      <c r="F111" t="s">
+        <v>67</v>
+      </c>
+      <c r="G111" s="1">
+        <v>5</v>
+      </c>
+      <c r="H111" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="112" hidden="1" spans="1:8">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>273</v>
+      </c>
+      <c r="C112">
+        <v>2</v>
+      </c>
+      <c r="D112" t="s">
+        <v>223</v>
+      </c>
+      <c r="F112" t="s">
+        <v>15</v>
+      </c>
+      <c r="G112" s="1">
+        <v>5</v>
+      </c>
+      <c r="H112" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="113" hidden="1" spans="1:8">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>275</v>
+      </c>
+      <c r="C113">
+        <v>2</v>
+      </c>
+      <c r="D113" t="s">
+        <v>90</v>
+      </c>
+      <c r="F113" t="s">
+        <v>23</v>
+      </c>
+      <c r="G113" s="1">
+        <v>6</v>
+      </c>
+      <c r="H113" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
+      <c r="A114" s="2">
+        <v>95</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C114" s="2">
+        <v>2</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E114" s="2"/>
+      <c r="F114" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G114" s="3">
+        <v>5</v>
+      </c>
+      <c r="H114" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="I114" s="2"/>
+      <c r="J114" s="2"/>
+    </row>
+    <row r="115" hidden="1" spans="1:8">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>279</v>
+      </c>
+      <c r="C115">
+        <v>2</v>
+      </c>
+      <c r="D115" t="s">
+        <v>48</v>
+      </c>
+      <c r="E115">
+        <v>8</v>
+      </c>
+      <c r="H115" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
+      <c r="A116" s="2">
+        <v>98</v>
+      </c>
+      <c r="B116" t="s">
+        <v>281</v>
+      </c>
+      <c r="C116">
+        <v>2</v>
+      </c>
+      <c r="D116" t="s">
+        <v>14</v>
+      </c>
+      <c r="F116" t="s">
+        <v>70</v>
+      </c>
+      <c r="G116" s="1">
+        <v>6</v>
+      </c>
+      <c r="H116" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
+      <c r="A117" s="2">
+        <v>101</v>
+      </c>
+      <c r="B117" t="s">
+        <v>283</v>
+      </c>
+      <c r="C117">
+        <v>2</v>
+      </c>
+      <c r="D117" t="s">
+        <v>14</v>
+      </c>
+      <c r="F117" t="s">
+        <v>15</v>
+      </c>
+      <c r="G117" s="1">
+        <v>5</v>
+      </c>
+      <c r="H117" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="118" hidden="1" spans="1:8">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>285</v>
+      </c>
+      <c r="C118">
+        <v>0</v>
+      </c>
+      <c r="D118" t="s">
+        <v>90</v>
+      </c>
+      <c r="F118" t="s">
+        <v>204</v>
+      </c>
+      <c r="H118" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="A119">
+        <v>113</v>
+      </c>
+      <c r="B119" t="s">
+        <v>287</v>
+      </c>
+      <c r="C119">
+        <v>2</v>
+      </c>
+      <c r="D119" t="s">
+        <v>14</v>
+      </c>
+      <c r="H119" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="120" hidden="1" spans="1:8">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>289</v>
+      </c>
+      <c r="C120">
+        <v>2</v>
+      </c>
+      <c r="D120" t="s">
+        <v>76</v>
+      </c>
+      <c r="F120" t="s">
+        <v>15</v>
+      </c>
+      <c r="G120" s="1">
+        <v>6</v>
+      </c>
+      <c r="H120" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="121" hidden="1" spans="1:8">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>291</v>
+      </c>
+      <c r="C121">
+        <v>1</v>
+      </c>
+      <c r="D121" t="s">
+        <v>76</v>
+      </c>
+      <c r="E121">
+        <v>4</v>
+      </c>
+      <c r="F121" t="s">
+        <v>73</v>
+      </c>
+      <c r="H121" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
+      <c r="A122">
+        <v>122</v>
+      </c>
+      <c r="B122" t="s">
+        <v>293</v>
+      </c>
+      <c r="C122">
+        <v>2</v>
+      </c>
+      <c r="D122" t="s">
+        <v>14</v>
+      </c>
+      <c r="H122" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
+      <c r="A123">
+        <v>130</v>
+      </c>
+      <c r="B123" t="s">
+        <v>295</v>
+      </c>
+      <c r="C123">
+        <v>2</v>
+      </c>
+      <c r="D123" t="s">
+        <v>14</v>
+      </c>
+      <c r="F123" t="s">
+        <v>54</v>
+      </c>
+      <c r="G123" s="1">
+        <v>6</v>
+      </c>
+      <c r="H123" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
+      <c r="A124">
+        <v>5</v>
+      </c>
+      <c r="B124" t="s">
+        <v>297</v>
+      </c>
+      <c r="C124">
+        <v>3</v>
+      </c>
+      <c r="D124" t="s">
+        <v>14</v>
+      </c>
+      <c r="F124" t="s">
+        <v>253</v>
+      </c>
+      <c r="G124" s="1">
+        <v>6</v>
+      </c>
+      <c r="H124" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="125" hidden="1" spans="1:8">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
+        <v>299</v>
+      </c>
+      <c r="C125">
+        <v>0</v>
+      </c>
+      <c r="D125" t="s">
+        <v>134</v>
+      </c>
+      <c r="F125" t="s">
+        <v>70</v>
+      </c>
+      <c r="H125" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="126" hidden="1" spans="1:8">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126" t="s">
+        <v>301</v>
+      </c>
+      <c r="C126">
+        <v>1</v>
+      </c>
+      <c r="D126" t="s">
+        <v>64</v>
+      </c>
+      <c r="F126" t="s">
+        <v>15</v>
+      </c>
+      <c r="G126" s="1">
+        <v>5</v>
+      </c>
+      <c r="H126" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="127" hidden="1" spans="1:8">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127" t="s">
+        <v>303</v>
+      </c>
+      <c r="C127">
+        <v>0</v>
+      </c>
+      <c r="D127" t="s">
+        <v>64</v>
+      </c>
+      <c r="F127" t="s">
+        <v>18</v>
+      </c>
+      <c r="G127" s="1">
+        <v>2</v>
+      </c>
+      <c r="H127" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="128" hidden="1" spans="1:8">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128" t="s">
+        <v>305</v>
+      </c>
+      <c r="C128">
+        <v>2</v>
+      </c>
+      <c r="D128" t="s">
+        <v>64</v>
+      </c>
+      <c r="F128" t="s">
+        <v>18</v>
+      </c>
+      <c r="G128" s="1">
+        <v>5</v>
+      </c>
+      <c r="H128" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="129" hidden="1" spans="1:8">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129" t="s">
+        <v>307</v>
+      </c>
+      <c r="C129">
+        <v>2</v>
+      </c>
+      <c r="D129" t="s">
+        <v>76</v>
+      </c>
+      <c r="E129">
+        <v>8</v>
+      </c>
+      <c r="H129" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="130" hidden="1" spans="1:8">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130" t="s">
+        <v>309</v>
+      </c>
+      <c r="C130">
+        <v>2</v>
+      </c>
+      <c r="D130" t="s">
+        <v>223</v>
+      </c>
+      <c r="E130">
+        <v>8</v>
+      </c>
+      <c r="H130" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
+      <c r="A131">
+        <v>17</v>
+      </c>
+      <c r="B131" t="s">
+        <v>311</v>
+      </c>
+      <c r="C131">
+        <v>3</v>
+      </c>
+      <c r="D131" t="s">
+        <v>14</v>
+      </c>
+      <c r="F131" t="s">
+        <v>26</v>
+      </c>
+      <c r="G131" s="1"/>
+      <c r="H131" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="132" hidden="1" spans="1:8">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132" t="s">
+        <v>313</v>
+      </c>
+      <c r="C132">
+        <v>1</v>
+      </c>
+      <c r="D132" t="s">
+        <v>211</v>
+      </c>
+      <c r="F132" t="s">
+        <v>15</v>
+      </c>
+      <c r="G132" s="1">
+        <v>6</v>
+      </c>
+      <c r="H132" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="133" hidden="1" spans="1:8">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133" t="s">
+        <v>315</v>
+      </c>
+      <c r="C133">
+        <v>2</v>
+      </c>
+      <c r="D133" t="s">
+        <v>211</v>
+      </c>
+      <c r="H133" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="134" hidden="1" spans="1:8">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134" t="s">
+        <v>317</v>
+      </c>
+      <c r="C134">
+        <v>2</v>
+      </c>
+      <c r="D134" t="s">
+        <v>48</v>
+      </c>
+      <c r="F134" t="s">
+        <v>30</v>
+      </c>
+      <c r="G134" s="1">
+        <v>5</v>
+      </c>
+      <c r="H134" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="135" hidden="1" spans="1:8">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135" t="s">
+        <v>319</v>
+      </c>
+      <c r="C135">
+        <v>2</v>
+      </c>
+      <c r="D135" t="s">
+        <v>61</v>
+      </c>
+      <c r="H135" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="136" hidden="1" spans="1:8">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136" t="s">
+        <v>321</v>
+      </c>
+      <c r="C136">
+        <v>2</v>
+      </c>
+      <c r="D136" t="s">
+        <v>48</v>
+      </c>
+      <c r="F136" t="s">
+        <v>15</v>
+      </c>
+      <c r="G136" s="1">
+        <v>6</v>
+      </c>
+      <c r="H136" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="137" hidden="1" spans="1:8">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137" t="s">
+        <v>323</v>
+      </c>
+      <c r="C137">
+        <v>0</v>
+      </c>
+      <c r="D137" t="s">
+        <v>90</v>
+      </c>
+      <c r="F137" t="s">
+        <v>204</v>
+      </c>
+      <c r="H137" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="138" hidden="1" spans="1:8">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138" t="s">
+        <v>325</v>
+      </c>
+      <c r="C138">
+        <v>1</v>
+      </c>
+      <c r="D138" t="s">
+        <v>61</v>
+      </c>
+      <c r="F138" t="s">
+        <v>70</v>
+      </c>
+      <c r="H138" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="139" hidden="1" spans="1:8">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139" t="s">
+        <v>327</v>
+      </c>
+      <c r="C139">
+        <v>2</v>
+      </c>
+      <c r="D139" t="s">
+        <v>247</v>
+      </c>
+      <c r="F139" t="s">
+        <v>250</v>
+      </c>
+      <c r="G139" s="1">
+        <v>6</v>
+      </c>
+      <c r="H139" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="140" hidden="1" spans="1:8">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140" t="s">
+        <v>329</v>
+      </c>
+      <c r="C140">
+        <v>2</v>
+      </c>
+      <c r="D140" t="s">
+        <v>61</v>
+      </c>
+      <c r="E140">
+        <v>8</v>
+      </c>
+      <c r="H140" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="141" hidden="1" spans="1:8">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141" t="s">
+        <v>331</v>
+      </c>
+      <c r="C141">
+        <v>2</v>
+      </c>
+      <c r="D141" t="s">
+        <v>29</v>
+      </c>
+      <c r="F141" t="s">
+        <v>30</v>
+      </c>
+      <c r="G141" s="1">
+        <v>6</v>
+      </c>
+      <c r="H141" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8">
+      <c r="A142">
+        <v>46</v>
+      </c>
+      <c r="B142" t="s">
+        <v>333</v>
+      </c>
+      <c r="C142">
+        <v>3</v>
+      </c>
+      <c r="D142" t="s">
+        <v>14</v>
+      </c>
+      <c r="F142" t="s">
+        <v>334</v>
+      </c>
+      <c r="G142" s="1">
+        <v>5</v>
+      </c>
+      <c r="H142" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8">
+      <c r="A143" s="2">
+        <v>94</v>
+      </c>
+      <c r="B143" t="s">
+        <v>336</v>
+      </c>
+      <c r="C143">
+        <v>3</v>
+      </c>
+      <c r="D143" t="s">
+        <v>14</v>
+      </c>
+      <c r="F143" t="s">
+        <v>26</v>
+      </c>
+      <c r="G143" s="1"/>
+      <c r="H143" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8">
+      <c r="A144">
+        <v>123</v>
+      </c>
+      <c r="B144" t="s">
+        <v>338</v>
+      </c>
+      <c r="C144">
+        <v>3</v>
+      </c>
+      <c r="D144" t="s">
+        <v>14</v>
+      </c>
+      <c r="H144" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="145" hidden="1" spans="1:8">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145" t="s">
+        <v>340</v>
+      </c>
+      <c r="C145">
+        <v>3</v>
+      </c>
+      <c r="D145" t="s">
+        <v>42</v>
+      </c>
+      <c r="F145" t="s">
+        <v>54</v>
+      </c>
+      <c r="G145" s="1">
+        <v>6</v>
+      </c>
+      <c r="H145" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
+      <c r="A146" s="2">
+        <v>89</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="C146" s="2">
+        <v>4</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E146" s="2"/>
+      <c r="F146" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="G146" s="3"/>
+      <c r="H146" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="I146" s="2"/>
+      <c r="J146" s="2"/>
+    </row>
+    <row r="147" hidden="1" spans="1:8">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147" t="s">
+        <v>344</v>
+      </c>
+      <c r="C147">
+        <v>0</v>
+      </c>
+      <c r="D147" t="s">
+        <v>93</v>
+      </c>
+      <c r="F147" t="s">
+        <v>94</v>
+      </c>
+      <c r="G147" s="1">
+        <v>2</v>
+      </c>
+      <c r="H147" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8">
+      <c r="A148">
+        <v>116</v>
+      </c>
+      <c r="B148" t="s">
+        <v>346</v>
+      </c>
+      <c r="C148">
+        <v>5</v>
+      </c>
+      <c r="D148" t="s">
+        <v>14</v>
+      </c>
+      <c r="F148" t="s">
+        <v>253</v>
+      </c>
+      <c r="H148" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="149" hidden="1"/>
+    <row r="150" hidden="1" spans="1:8">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150" t="s">
+        <v>348</v>
+      </c>
+      <c r="C150">
+        <v>1</v>
+      </c>
+      <c r="D150" t="s">
+        <v>223</v>
+      </c>
+      <c r="F150" t="s">
+        <v>70</v>
+      </c>
+      <c r="H150" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="151" hidden="1" spans="1:8">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="B151" t="s">
+        <v>350</v>
+      </c>
+      <c r="C151">
+        <v>2</v>
+      </c>
+      <c r="D151" t="s">
+        <v>116</v>
+      </c>
+      <c r="F151" t="s">
+        <v>15</v>
+      </c>
+      <c r="G151" s="1">
+        <v>6</v>
+      </c>
+      <c r="H151" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="152" hidden="1" spans="1:8">
+      <c r="A152">
+        <v>151</v>
+      </c>
+      <c r="B152" t="s">
+        <v>352</v>
+      </c>
+      <c r="C152">
+        <v>1</v>
+      </c>
+      <c r="D152" t="s">
+        <v>48</v>
+      </c>
+      <c r="F152" t="s">
+        <v>141</v>
+      </c>
+      <c r="H152" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="153" hidden="1" spans="1:8">
+      <c r="A153">
+        <v>152</v>
+      </c>
+      <c r="B153" t="s">
+        <v>354</v>
+      </c>
+      <c r="C153">
+        <v>2</v>
+      </c>
+      <c r="D153" t="s">
+        <v>223</v>
+      </c>
+      <c r="F153" t="s">
+        <v>355</v>
+      </c>
+      <c r="G153" s="1">
+        <v>6</v>
+      </c>
+      <c r="H153" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="154" hidden="1" spans="1:8">
+      <c r="A154">
+        <v>153</v>
+      </c>
+      <c r="B154" t="s">
+        <v>357</v>
+      </c>
+      <c r="C154">
+        <v>2</v>
+      </c>
+      <c r="D154" t="s">
+        <v>134</v>
+      </c>
+      <c r="F154" t="s">
+        <v>151</v>
+      </c>
+      <c r="H154" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="155" hidden="1" spans="1:8">
+      <c r="A155">
+        <v>154</v>
+      </c>
+      <c r="B155" t="s">
+        <v>359</v>
+      </c>
+      <c r="C155">
+        <v>3</v>
+      </c>
+      <c r="D155" t="s">
+        <v>247</v>
+      </c>
+      <c r="F155" t="s">
+        <v>250</v>
+      </c>
+      <c r="G155" s="1">
+        <v>6</v>
+      </c>
+      <c r="H155" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="156" hidden="1" spans="1:8">
+      <c r="A156">
+        <v>155</v>
+      </c>
+      <c r="B156" t="s">
+        <v>361</v>
+      </c>
+      <c r="C156">
+        <v>3</v>
+      </c>
+      <c r="D156" t="s">
+        <v>42</v>
+      </c>
+      <c r="E156">
+        <v>8</v>
+      </c>
+      <c r="F156" t="s">
+        <v>362</v>
+      </c>
+      <c r="G156" s="1">
+        <v>5</v>
+      </c>
+      <c r="H156" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="157" hidden="1" spans="1:8">
+      <c r="A157">
+        <v>156</v>
+      </c>
+      <c r="B157" t="s">
+        <v>364</v>
+      </c>
+      <c r="C157">
+        <v>3</v>
+      </c>
+      <c r="D157" t="s">
+        <v>211</v>
+      </c>
+      <c r="E157">
+        <v>4</v>
+      </c>
+      <c r="F157" t="s">
+        <v>365</v>
+      </c>
+      <c r="H157" t="s">
+        <v>366</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:A70">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+  <conditionalFormatting sqref="A2:A157">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B70">
+  <conditionalFormatting sqref="B2:B157">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
+  <conditionalFormatting sqref="H$1:H$1048576">
+    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>

--- a/Entities/Data/MovesPokemon.xlsx
+++ b/Entities/Data/MovesPokemon.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16125" windowHeight="10530"/>
+    <workbookView windowHeight="14100"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="368">
   <si>
     <t>ID</t>
   </si>
@@ -68,31 +68,97 @@
     <t>CHICOTE DE VINHA</t>
   </si>
   <si>
+    <t>TACKLE</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>INVESTIDA</t>
+  </si>
+  <si>
+    <t>POISON POWDER</t>
+  </si>
+  <si>
+    <t>Poison</t>
+  </si>
+  <si>
+    <t>B.POISON</t>
+  </si>
+  <si>
+    <t>PÓ VENENOSO</t>
+  </si>
+  <si>
+    <t>RAZOR LEAF</t>
+  </si>
+  <si>
+    <t>FOLHA NAVALHA</t>
+  </si>
+  <si>
+    <t>DOUBLE-EDGE</t>
+  </si>
+  <si>
+    <t>W.KO</t>
+  </si>
+  <si>
+    <t>PONTADA DUPLA</t>
+  </si>
+  <si>
+    <t>SOLAR BEAM</t>
+  </si>
+  <si>
+    <t>RECHARGE</t>
+  </si>
+  <si>
+    <t>RAIO SOLAR</t>
+  </si>
+  <si>
+    <t>EMBER</t>
+  </si>
+  <si>
+    <t>Fire</t>
+  </si>
+  <si>
+    <t>B.BURN</t>
+  </si>
+  <si>
+    <t>BRASA</t>
+  </si>
+  <si>
     <t>GROWL</t>
   </si>
   <si>
-    <t>Normal</t>
-  </si>
-  <si>
     <t>B.TWODICES</t>
   </si>
   <si>
     <t>ROSNADO</t>
   </si>
   <si>
-    <t>POISON POWDER</t>
-  </si>
-  <si>
-    <t>B.POISON</t>
-  </si>
-  <si>
-    <t>PÓ VENENOSO</t>
-  </si>
-  <si>
-    <t>RAZOR LEAF</t>
-  </si>
-  <si>
-    <t>FOLHA NAVALHA</t>
+    <t>FLAMETHROWER</t>
+  </si>
+  <si>
+    <t>LANÇA-CHAMAS</t>
+  </si>
+  <si>
+    <t>SLASH</t>
+  </si>
+  <si>
+    <t>RETALHAR</t>
+  </si>
+  <si>
+    <t>FIRE BURST</t>
+  </si>
+  <si>
+    <t>EXPLOSÃO DE FOGO</t>
+  </si>
+  <si>
+    <t>WING ATTACK</t>
+  </si>
+  <si>
+    <t>Flying</t>
+  </si>
+  <si>
+    <t>ATAQUE DE ASA</t>
   </si>
   <si>
     <t>TAIL WHIP</t>
@@ -104,25 +170,58 @@
     <t>CAUDA CHICOTE</t>
   </si>
   <si>
-    <t>SOLAR BEAM</t>
-  </si>
-  <si>
-    <t>RECHARGE</t>
-  </si>
-  <si>
-    <t>RAIO SOLAR</t>
-  </si>
-  <si>
-    <t>EMBER</t>
-  </si>
-  <si>
-    <t>Fire</t>
-  </si>
-  <si>
-    <t>B.BURN</t>
-  </si>
-  <si>
-    <t>BRASA</t>
+    <t>BUBBLE</t>
+  </si>
+  <si>
+    <t>Water</t>
+  </si>
+  <si>
+    <t>BOLHAS</t>
+  </si>
+  <si>
+    <t>RAIN DANCE</t>
+  </si>
+  <si>
+    <t>RAIN</t>
+  </si>
+  <si>
+    <t>DANÇA DA CHUVA</t>
+  </si>
+  <si>
+    <t>WATER PULSE</t>
+  </si>
+  <si>
+    <t>B.CONFUSION</t>
+  </si>
+  <si>
+    <t>PULSO D'ÁGUA</t>
+  </si>
+  <si>
+    <t>SKULL SMASH</t>
+  </si>
+  <si>
+    <t>QUEBRA-CRÂNIO</t>
+  </si>
+  <si>
+    <t>HYDRO PUMP</t>
+  </si>
+  <si>
+    <t>HIDRO-BOMBA</t>
+  </si>
+  <si>
+    <t>STRING SHOT</t>
+  </si>
+  <si>
+    <t>Bug</t>
+  </si>
+  <si>
+    <t>TIRO DE ESTILINGUE</t>
+  </si>
+  <si>
+    <t>POISON STING</t>
+  </si>
+  <si>
+    <t>PICADA VENENOSA</t>
   </si>
   <si>
     <t>HARDEN</t>
@@ -131,10 +230,46 @@
     <t>ENDURECER</t>
   </si>
   <si>
-    <t>FLAMETHROWER</t>
-  </si>
-  <si>
-    <t>LANÇA-CHAMAS</t>
+    <t>VENOSHOCK</t>
+  </si>
+  <si>
+    <t>B.STATUS</t>
+  </si>
+  <si>
+    <t>VENOCHOQUE</t>
+  </si>
+  <si>
+    <t>PIN MISSILE</t>
+  </si>
+  <si>
+    <t>W.SOMADICES</t>
+  </si>
+  <si>
+    <t>MÍSSIL ESPINHO</t>
+  </si>
+  <si>
+    <t>SAND ATTACK</t>
+  </si>
+  <si>
+    <t>Ground</t>
+  </si>
+  <si>
+    <t>ATAQUE DE AREIA</t>
+  </si>
+  <si>
+    <t>GUST</t>
+  </si>
+  <si>
+    <t>VENTANIA</t>
+  </si>
+  <si>
+    <t>QUICK ATTACK</t>
+  </si>
+  <si>
+    <t>W.FIRST</t>
+  </si>
+  <si>
+    <t>ATAQUE RÁPIDO</t>
   </si>
   <si>
     <t>WHIRWIND</t>
@@ -146,19 +281,61 @@
     <t>RAJADA DE VENTO</t>
   </si>
   <si>
-    <t>FIRE BURST</t>
-  </si>
-  <si>
-    <t>EXPLOSÃO DE FOGO</t>
-  </si>
-  <si>
-    <t>WING ATTACK</t>
-  </si>
-  <si>
-    <t>Flying</t>
-  </si>
-  <si>
-    <t>ATAQUE DE ASA</t>
+    <t>AIR SLASH</t>
+  </si>
+  <si>
+    <t>GOLPE DE AR</t>
+  </si>
+  <si>
+    <t>DEFOG</t>
+  </si>
+  <si>
+    <t>ESPECIAL</t>
+  </si>
+  <si>
+    <t>DESNEBLINAR</t>
+  </si>
+  <si>
+    <t>PSYBEAM</t>
+  </si>
+  <si>
+    <t>Psychic</t>
+  </si>
+  <si>
+    <t>RAIO PSÍQUICO</t>
+  </si>
+  <si>
+    <t>THUNDER SHOCK</t>
+  </si>
+  <si>
+    <t>Electric</t>
+  </si>
+  <si>
+    <t>B.PARALYZE</t>
+  </si>
+  <si>
+    <t>CHOQUE TROVÃO</t>
+  </si>
+  <si>
+    <t>THUNDER PUNCH</t>
+  </si>
+  <si>
+    <t>SOCO TROVÃO</t>
+  </si>
+  <si>
+    <t>ELECTRIC BALL</t>
+  </si>
+  <si>
+    <t>W.HALFLEVEL</t>
+  </si>
+  <si>
+    <t>BOLA ELÉTRICA</t>
+  </si>
+  <si>
+    <t>HYPER FANG</t>
+  </si>
+  <si>
+    <t>MEGA PRESA</t>
   </si>
   <si>
     <t>SUPER FANG</t>
@@ -170,31 +347,22 @@
     <t>SUPER PRESA</t>
   </si>
   <si>
-    <t>BUBBLE</t>
-  </si>
-  <si>
-    <t>Water</t>
-  </si>
-  <si>
-    <t>BOLHAS</t>
-  </si>
-  <si>
-    <t>RAIN DANCE</t>
-  </si>
-  <si>
-    <t>RAIN</t>
-  </si>
-  <si>
-    <t>DANÇA DA CHUVA</t>
-  </si>
-  <si>
-    <t>WATER PULSE</t>
-  </si>
-  <si>
-    <t>B.CONFUSION</t>
-  </si>
-  <si>
-    <t>PULSO D'ÁGUA</t>
+    <t>MIRROR MOVE</t>
+  </si>
+  <si>
+    <t>MOVIMENTO ESPELHO</t>
+  </si>
+  <si>
+    <t>DRILL PECK</t>
+  </si>
+  <si>
+    <t>BICO BROCA</t>
+  </si>
+  <si>
+    <t>PECK</t>
+  </si>
+  <si>
+    <t>BICADA</t>
   </si>
   <si>
     <t>LEER</t>
@@ -203,28 +371,37 @@
     <t>ENCARAR</t>
   </si>
   <si>
-    <t>HYDRO PUMP</t>
-  </si>
-  <si>
-    <t>HIDRO-BOMBA</t>
-  </si>
-  <si>
-    <t>STRING SHOT</t>
-  </si>
-  <si>
-    <t>Bug</t>
-  </si>
-  <si>
-    <t>TIRO DE ESTILINGUE</t>
-  </si>
-  <si>
-    <t>POISON STING</t>
-  </si>
-  <si>
-    <t>Poison</t>
-  </si>
-  <si>
-    <t>PICADA VENENOSA</t>
+    <t>ACID</t>
+  </si>
+  <si>
+    <t>ÁCIDO</t>
+  </si>
+  <si>
+    <t>BITE</t>
+  </si>
+  <si>
+    <t>Dark</t>
+  </si>
+  <si>
+    <t>MORDIDA</t>
+  </si>
+  <si>
+    <t>WRAP</t>
+  </si>
+  <si>
+    <t>ENRROLAR</t>
+  </si>
+  <si>
+    <t>SCRATCH</t>
+  </si>
+  <si>
+    <t>ARRANHAR</t>
+  </si>
+  <si>
+    <t>HORN ATTACK</t>
+  </si>
+  <si>
+    <t>ATAQUE DE CHIFRE</t>
   </si>
   <si>
     <t>HORN DRILL</t>
@@ -236,37 +413,43 @@
     <t>CHIFRE BROCA</t>
   </si>
   <si>
-    <t>VENOSHOCK</t>
-  </si>
-  <si>
-    <t>ESPECIAL</t>
-  </si>
-  <si>
-    <t>VENOCHOQUE</t>
-  </si>
-  <si>
-    <t>PIN MISSILE</t>
-  </si>
-  <si>
-    <t>W.SOMADICES</t>
-  </si>
-  <si>
-    <t>MÍSSIL ESPINHO</t>
-  </si>
-  <si>
-    <t>SAND ATTACK</t>
-  </si>
-  <si>
-    <t>Ground</t>
-  </si>
-  <si>
-    <t>ATAQUE DE AREIA</t>
-  </si>
-  <si>
-    <t>GUST</t>
-  </si>
-  <si>
-    <t>VENTANIA</t>
+    <t>THRASH</t>
+  </si>
+  <si>
+    <t>W.CONFUSION</t>
+  </si>
+  <si>
+    <t>CASTIGAR</t>
+  </si>
+  <si>
+    <t>SWIFT</t>
+  </si>
+  <si>
+    <t>W.PRECISION</t>
+  </si>
+  <si>
+    <t>ATAQUE VELOZ</t>
+  </si>
+  <si>
+    <t>DIG</t>
+  </si>
+  <si>
+    <t>CAVAR</t>
+  </si>
+  <si>
+    <t>DOUBLE KICK</t>
+  </si>
+  <si>
+    <t>Fighting</t>
+  </si>
+  <si>
+    <t>CHUTE DUPLO</t>
+  </si>
+  <si>
+    <t>BODY SLAM</t>
+  </si>
+  <si>
+    <t>GOLPE DE CORPO</t>
   </si>
   <si>
     <t>SING</t>
@@ -278,58 +461,43 @@
     <t>CANÇÃO</t>
   </si>
   <si>
+    <t>POUND</t>
+  </si>
+  <si>
+    <t>TAPA</t>
+  </si>
+  <si>
+    <t>DOUBLE SLAP</t>
+  </si>
+  <si>
+    <t>TAPA DUPLO</t>
+  </si>
+  <si>
     <t>METRONOME</t>
   </si>
   <si>
     <t>METRONOMO</t>
   </si>
   <si>
-    <t>AIR SLASH</t>
-  </si>
-  <si>
-    <t>GOLPE DE AR</t>
-  </si>
-  <si>
-    <t>DEFOG</t>
-  </si>
-  <si>
-    <t>DESNEBLINAR</t>
-  </si>
-  <si>
-    <t>PSYBEAM</t>
-  </si>
-  <si>
-    <t>Psychic</t>
-  </si>
-  <si>
-    <t>RAIO PSÍQUICO</t>
-  </si>
-  <si>
-    <t>THUNDER SHOCK</t>
-  </si>
-  <si>
-    <t>Electric</t>
-  </si>
-  <si>
-    <t>B.PARALYZE</t>
-  </si>
-  <si>
-    <t>CHOQUE TROVÃO</t>
-  </si>
-  <si>
-    <t>THUNDER PUNCH</t>
-  </si>
-  <si>
-    <t>SOCO TROVÃO</t>
-  </si>
-  <si>
-    <t>ELECTRIC BALL</t>
-  </si>
-  <si>
-    <t>W.HALFLEVEL</t>
-  </si>
-  <si>
-    <t>BOLA ELÉTRICA</t>
+    <t>FIRE SPIN</t>
+  </si>
+  <si>
+    <t>CÍRCULO DE FOGO</t>
+  </si>
+  <si>
+    <t>DISARMING VOICE</t>
+  </si>
+  <si>
+    <t>Fairy</t>
+  </si>
+  <si>
+    <t>VOZ DESARMANTE</t>
+  </si>
+  <si>
+    <t>PLAY ROUGH</t>
+  </si>
+  <si>
+    <t>BRIGAR</t>
   </si>
   <si>
     <t>SUPERSONIC</t>
@@ -338,28 +506,130 @@
     <t>SUPERSÔNICO</t>
   </si>
   <si>
+    <t>ANTONISH</t>
+  </si>
+  <si>
+    <t>Ghost</t>
+  </si>
+  <si>
+    <t>ASSUSTAR</t>
+  </si>
+  <si>
+    <t>POISON FANG</t>
+  </si>
+  <si>
+    <t>PRESA VENENO</t>
+  </si>
+  <si>
+    <t>AIR CUTTER</t>
+  </si>
+  <si>
+    <t>AR CORTANTE</t>
+  </si>
+  <si>
+    <t>ABSORB</t>
+  </si>
+  <si>
+    <t>ABSORÇÃO</t>
+  </si>
+  <si>
+    <t>STUN SPORE</t>
+  </si>
+  <si>
+    <t>PÓ ATORDOANTE</t>
+  </si>
+  <si>
+    <t>PETAL DANCE</t>
+  </si>
+  <si>
+    <t>W.SLEEP</t>
+  </si>
+  <si>
+    <t>DANÇA DE PÉTALAS</t>
+  </si>
+  <si>
+    <t>SLUDGE WAVE</t>
+  </si>
+  <si>
+    <t>ONDA DE LAMA</t>
+  </si>
+  <si>
+    <t>SPORE</t>
+  </si>
+  <si>
+    <t>ESPOROS</t>
+  </si>
+  <si>
+    <t>CONFUSION</t>
+  </si>
+  <si>
+    <t>CONFUSÃO</t>
+  </si>
+  <si>
+    <t>SLEEP POWDER</t>
+  </si>
+  <si>
+    <t>PÓ DO SONO</t>
+  </si>
+  <si>
+    <t>LEECH LIFE</t>
+  </si>
+  <si>
+    <t>W.LIFE</t>
+  </si>
+  <si>
+    <t>DRENO DE VIDA</t>
+  </si>
+  <si>
+    <t>EARTHQUAKE</t>
+  </si>
+  <si>
+    <t>TERREMOTO</t>
+  </si>
+  <si>
+    <t>PAY DAY</t>
+  </si>
+  <si>
+    <t>W.CARD</t>
+  </si>
+  <si>
+    <t>DIA DE PAGAMENTO</t>
+  </si>
+  <si>
+    <t>FURY SWIPES</t>
+  </si>
+  <si>
+    <t>GOLPES DE FÚRIA</t>
+  </si>
+  <si>
     <t>DISABLE</t>
   </si>
   <si>
     <t>DESABILITAR</t>
   </si>
   <si>
-    <t>MIRROR MOVE</t>
-  </si>
-  <si>
-    <t>MOVIMENTO ESPELHO</t>
-  </si>
-  <si>
-    <t>DRILL PECK</t>
-  </si>
-  <si>
-    <t>BICO BROCA</t>
-  </si>
-  <si>
-    <t>PECK</t>
-  </si>
-  <si>
-    <t>BICADA</t>
+    <t>WATER GUN</t>
+  </si>
+  <si>
+    <t>JATO D'ÁGUA</t>
+  </si>
+  <si>
+    <t>ZEN HEADBUTT</t>
+  </si>
+  <si>
+    <t>CABEÇADA ZEN</t>
+  </si>
+  <si>
+    <t>LOW KICK</t>
+  </si>
+  <si>
+    <t>CHUTE BAIXO</t>
+  </si>
+  <si>
+    <t>SEISMIC TOSS</t>
+  </si>
+  <si>
+    <t>ABALO SÍSMICO</t>
   </si>
   <si>
     <t>ROAR</t>
@@ -368,19 +638,124 @@
     <t>RUGIDO</t>
   </si>
   <si>
-    <t>ACID</t>
-  </si>
-  <si>
-    <t>ÁCIDO</t>
-  </si>
-  <si>
-    <t>BITE</t>
-  </si>
-  <si>
-    <t>Dark</t>
-  </si>
-  <si>
-    <t>MORDIDA</t>
+    <t>HYPNOSIS</t>
+  </si>
+  <si>
+    <t>HIPNOSE</t>
+  </si>
+  <si>
+    <t>AMNESIA</t>
+  </si>
+  <si>
+    <t>B.THREEDICES</t>
+  </si>
+  <si>
+    <t>AMNÉSIA</t>
+  </si>
+  <si>
+    <t>TELEPORT</t>
+  </si>
+  <si>
+    <t>TELEPORTE</t>
+  </si>
+  <si>
+    <t>PSYSHOCK</t>
+  </si>
+  <si>
+    <t>CHOQUE PSÍQUICO</t>
+  </si>
+  <si>
+    <t>DUAL CHOP</t>
+  </si>
+  <si>
+    <t>Dragon</t>
+  </si>
+  <si>
+    <t>PANCADA DUPLA</t>
+  </si>
+  <si>
+    <t>KARATE CHOP</t>
+  </si>
+  <si>
+    <t>GOLPE KARATÊ</t>
+  </si>
+  <si>
+    <t>CROSS CHOP</t>
+  </si>
+  <si>
+    <t>GOLPE CRUZADO</t>
+  </si>
+  <si>
+    <t>SLAM</t>
+  </si>
+  <si>
+    <t>PANCADA</t>
+  </si>
+  <si>
+    <t>BULLDOZE</t>
+  </si>
+  <si>
+    <t>TREMOR</t>
+  </si>
+  <si>
+    <t>SMACK DOWN</t>
+  </si>
+  <si>
+    <t>Rock</t>
+  </si>
+  <si>
+    <t>DERRUBADA</t>
+  </si>
+  <si>
+    <t>SELF-DESTRUCT</t>
+  </si>
+  <si>
+    <t>AUTODESTRUIÇÃO</t>
+  </si>
+  <si>
+    <t>ROCK BLAST</t>
+  </si>
+  <si>
+    <t>EXPLOSÃO DE ROCHA</t>
+  </si>
+  <si>
+    <t>HEAVY SLAM</t>
+  </si>
+  <si>
+    <t>Steel</t>
+  </si>
+  <si>
+    <t>GOLPE PESADO</t>
+  </si>
+  <si>
+    <t>TAKE DOWN</t>
+  </si>
+  <si>
+    <t>QUEDA DE CORPO</t>
+  </si>
+  <si>
+    <t>PSYCHO CUT</t>
+  </si>
+  <si>
+    <t>CORTE PSÍQUICO</t>
+  </si>
+  <si>
+    <t>HYPER BEAM</t>
+  </si>
+  <si>
+    <t>HIPER-RAIO</t>
+  </si>
+  <si>
+    <t>STOMP</t>
+  </si>
+  <si>
+    <t>PISOTEAR</t>
+  </si>
+  <si>
+    <t>THUNDER</t>
+  </si>
+  <si>
+    <t>RELÂMPAGO</t>
   </si>
   <si>
     <t>SWORD DANCE</t>
@@ -392,12 +767,273 @@
     <t>DANÇA DAS ESPADAS</t>
   </si>
   <si>
+    <t>TRI ATTACK</t>
+  </si>
+  <si>
+    <t>ATAQUE TRIPLO</t>
+  </si>
+  <si>
+    <t>AURORA BEAM</t>
+  </si>
+  <si>
+    <t>Ice</t>
+  </si>
+  <si>
+    <t>RAIO AURORA</t>
+  </si>
+  <si>
+    <t>ICE BEAM</t>
+  </si>
+  <si>
+    <t>B.FREEZE</t>
+  </si>
+  <si>
+    <t>RAIO DE GELO</t>
+  </si>
+  <si>
+    <t>HEADBUTT</t>
+  </si>
+  <si>
+    <t>CABEÇADA</t>
+  </si>
+  <si>
+    <t>TOXIC</t>
+  </si>
+  <si>
+    <t>TÓXICO</t>
+  </si>
+  <si>
+    <t>ACID ARMOR</t>
+  </si>
+  <si>
+    <t>ARMADURA ÁCIDA</t>
+  </si>
+  <si>
+    <t>GUNK SHOT</t>
+  </si>
+  <si>
+    <t>TIRO DE SUJEIRA</t>
+  </si>
+  <si>
+    <t>CLAMP</t>
+  </si>
+  <si>
+    <t>PRENDER</t>
+  </si>
+  <si>
+    <t>LICK</t>
+  </si>
+  <si>
+    <t>LAMBIDA</t>
+  </si>
+  <si>
+    <t>SHADOW PUNCH</t>
+  </si>
+  <si>
+    <t>SOCO SOMBRIO</t>
+  </si>
+  <si>
+    <t>DARK PULSE</t>
+  </si>
+  <si>
+    <t>PULSO SOMBRIO</t>
+  </si>
+  <si>
+    <t>SHADOW BALL</t>
+  </si>
+  <si>
+    <t>BOLA SOMBRIA</t>
+  </si>
+  <si>
+    <t>FISSURE</t>
+  </si>
+  <si>
+    <t>FISSURA</t>
+  </si>
+  <si>
+    <t>ROCK SLIDE</t>
+  </si>
+  <si>
+    <t>DESLIZE DE PEDRA</t>
+  </si>
+  <si>
+    <t>PSYCHIC</t>
+  </si>
+  <si>
+    <t>PSÍQUICO</t>
+  </si>
+  <si>
+    <t>VISE GRIP</t>
+  </si>
+  <si>
+    <t>APERTO COM GARRA</t>
+  </si>
+  <si>
+    <t>CRABHAMMER</t>
+  </si>
+  <si>
+    <t>GARRA MARTELO</t>
+  </si>
+  <si>
     <t>GUILLOTINE</t>
   </si>
   <si>
     <t>GUILHOTINA</t>
   </si>
   <si>
+    <t>EXPLOSION</t>
+  </si>
+  <si>
+    <t>EXPLOSÃO</t>
+  </si>
+  <si>
+    <t>LIGHT SCREEN</t>
+  </si>
+  <si>
+    <t>TELA DE LUZ</t>
+  </si>
+  <si>
+    <t>BARRAGE</t>
+  </si>
+  <si>
+    <t>BARRAGEM</t>
+  </si>
+  <si>
+    <t>BONE CLUB</t>
+  </si>
+  <si>
+    <t>CLAVA DE OSSO</t>
+  </si>
+  <si>
+    <t>BONEMERANG</t>
+  </si>
+  <si>
+    <t>OSSO BUMERANGUE</t>
+  </si>
+  <si>
+    <t>RAGE</t>
+  </si>
+  <si>
+    <t>W.FURY</t>
+  </si>
+  <si>
+    <t>FÚRIA</t>
+  </si>
+  <si>
+    <t>MEGA PUNCH</t>
+  </si>
+  <si>
+    <t>MEGA SOCO</t>
+  </si>
+  <si>
+    <t>MEGA KICK</t>
+  </si>
+  <si>
+    <t>MEGA CHUTE</t>
+  </si>
+  <si>
+    <t>COUNTER</t>
+  </si>
+  <si>
+    <t>CONTRA-ATAQUE</t>
+  </si>
+  <si>
+    <t>SMOG</t>
+  </si>
+  <si>
+    <t>POLUIÇÃO</t>
+  </si>
+  <si>
+    <t>POISON GAS</t>
+  </si>
+  <si>
+    <t>GÁS VENENOSO</t>
+  </si>
+  <si>
+    <t>SLUDGE BOMB</t>
+  </si>
+  <si>
+    <t>BOMBA DE LODO</t>
+  </si>
+  <si>
+    <t>DRILL RUN</t>
+  </si>
+  <si>
+    <t>BROCA VELOZ</t>
+  </si>
+  <si>
+    <t>STONE EDGE</t>
+  </si>
+  <si>
+    <t>GUME DE PEDRA</t>
+  </si>
+  <si>
+    <t>DIZZY PUNCH</t>
+  </si>
+  <si>
+    <t>SOCO ATORDOANTE</t>
+  </si>
+  <si>
+    <t>TWISTER</t>
+  </si>
+  <si>
+    <t>TORNADO</t>
+  </si>
+  <si>
+    <t>DRAGON PULSE</t>
+  </si>
+  <si>
+    <t>PULSO DO DRAGÃO</t>
+  </si>
+  <si>
+    <t>SCALD</t>
+  </si>
+  <si>
+    <t>ESCALDAR</t>
+  </si>
+  <si>
+    <t>MEGA HORN</t>
+  </si>
+  <si>
+    <t>MEGA CHIFRE</t>
+  </si>
+  <si>
+    <t>WATERFALL</t>
+  </si>
+  <si>
+    <t>CACHOEIRA</t>
+  </si>
+  <si>
+    <t>BARRIER</t>
+  </si>
+  <si>
+    <t>BARREIRA</t>
+  </si>
+  <si>
+    <t>FURY CUTTER</t>
+  </si>
+  <si>
+    <t>FÚRIA CORTANTE</t>
+  </si>
+  <si>
+    <t>ICE PUNCH</t>
+  </si>
+  <si>
+    <t>PUNHO DE GELO</t>
+  </si>
+  <si>
+    <t>X-SCISSOR</t>
+  </si>
+  <si>
+    <t>TESOURA X</t>
+  </si>
+  <si>
+    <t>FIRE PUNCH</t>
+  </si>
+  <si>
+    <t>PUNHO DE FOGO</t>
+  </si>
+  <si>
     <t>SCREECH</t>
   </si>
   <si>
@@ -416,661 +1052,28 @@
     <t>RESPINGO</t>
   </si>
   <si>
+    <t>HURRICANE</t>
+  </si>
+  <si>
+    <t>FURAÇÃO</t>
+  </si>
+  <si>
     <t>TRANSFORM</t>
   </si>
   <si>
     <t>TRANSFORMAR</t>
   </si>
   <si>
-    <t>DIG</t>
-  </si>
-  <si>
-    <t>CAVAR</t>
-  </si>
-  <si>
-    <t>DOUBLE KICK</t>
-  </si>
-  <si>
-    <t>Fighting</t>
-  </si>
-  <si>
-    <t>CHUTE DUPLO</t>
+    <t>THUNDER WAVE</t>
+  </si>
+  <si>
+    <t>ONDA TROVÃO</t>
   </si>
   <si>
     <t>CONVERSION</t>
   </si>
   <si>
     <t>CONVERSÃO</t>
-  </si>
-  <si>
-    <t>TACKLE</t>
-  </si>
-  <si>
-    <t>INVESTIDA</t>
-  </si>
-  <si>
-    <t>QUICK ATTACK</t>
-  </si>
-  <si>
-    <t>W.FIRST</t>
-  </si>
-  <si>
-    <t>ATAQUE RÁPIDO</t>
-  </si>
-  <si>
-    <t>WRAP</t>
-  </si>
-  <si>
-    <t>ENRROLAR</t>
-  </si>
-  <si>
-    <t>SCRATCH</t>
-  </si>
-  <si>
-    <t>ARRANHAR</t>
-  </si>
-  <si>
-    <t>FIRE SPIN</t>
-  </si>
-  <si>
-    <t>CÍRCULO DE FOGO</t>
-  </si>
-  <si>
-    <t>DISARMING VOICE</t>
-  </si>
-  <si>
-    <t>Fairy</t>
-  </si>
-  <si>
-    <t>W.PRECISION</t>
-  </si>
-  <si>
-    <t>VOZ DESARMANTE</t>
-  </si>
-  <si>
-    <t>PLAY ROUGH</t>
-  </si>
-  <si>
-    <t>BRIGAR</t>
-  </si>
-  <si>
-    <t>POUND</t>
-  </si>
-  <si>
-    <t>TAPA</t>
-  </si>
-  <si>
-    <t>ANTONISH</t>
-  </si>
-  <si>
-    <t>Ghost</t>
-  </si>
-  <si>
-    <t>ASSUSTAR</t>
-  </si>
-  <si>
-    <t>POISON FANG</t>
-  </si>
-  <si>
-    <t>PRESA VENENO</t>
-  </si>
-  <si>
-    <t>AIR CUTTER</t>
-  </si>
-  <si>
-    <t>AR CORTANTE</t>
-  </si>
-  <si>
-    <t>ABSORB</t>
-  </si>
-  <si>
-    <t>ABSORÇÃO</t>
-  </si>
-  <si>
-    <t>STUN SPORE</t>
-  </si>
-  <si>
-    <t>PÓ ATORDOANTE</t>
-  </si>
-  <si>
-    <t>PETAL DANCE</t>
-  </si>
-  <si>
-    <t>W.SLEEP</t>
-  </si>
-  <si>
-    <t>DANÇA DE PÉTALAS</t>
-  </si>
-  <si>
-    <t>SLUDGE WAVE</t>
-  </si>
-  <si>
-    <t>ONDA DE LAMA</t>
-  </si>
-  <si>
-    <t>SPORE</t>
-  </si>
-  <si>
-    <t>ESPOROS</t>
-  </si>
-  <si>
-    <t>CONFUSION</t>
-  </si>
-  <si>
-    <t>CONFUSÃO</t>
-  </si>
-  <si>
-    <t>SLEEP POWDER</t>
-  </si>
-  <si>
-    <t>PÓ DO SONO</t>
-  </si>
-  <si>
-    <t>LEECH LIFE</t>
-  </si>
-  <si>
-    <t>W.LIFE</t>
-  </si>
-  <si>
-    <t>DRENO DE VIDA</t>
-  </si>
-  <si>
-    <t>EARTHQUAKE</t>
-  </si>
-  <si>
-    <t>TERREMOTO</t>
-  </si>
-  <si>
-    <t>DOUBLE SLAP</t>
-  </si>
-  <si>
-    <t>TAPA DUPLO</t>
-  </si>
-  <si>
-    <t>PAY DAY</t>
-  </si>
-  <si>
-    <t>W.CARD</t>
-  </si>
-  <si>
-    <t>DIA DE PAGAMENTO</t>
-  </si>
-  <si>
-    <t>FURY SWIPES</t>
-  </si>
-  <si>
-    <t>GOLPES DE FÚRIA</t>
-  </si>
-  <si>
-    <t>WATER GUN</t>
-  </si>
-  <si>
-    <t>JATO D'ÁGUA</t>
-  </si>
-  <si>
-    <t>ZEN HEADBUTT</t>
-  </si>
-  <si>
-    <t>CABEÇADA ZEN</t>
-  </si>
-  <si>
-    <t>LOW KICK</t>
-  </si>
-  <si>
-    <t>CHUTE BAIXO</t>
-  </si>
-  <si>
-    <t>SEISMIC TOSS</t>
-  </si>
-  <si>
-    <t>ABALO SÍSMICO</t>
-  </si>
-  <si>
-    <t>BARRAGE</t>
-  </si>
-  <si>
-    <t>BARRAGEM</t>
-  </si>
-  <si>
-    <t>HYPNOSIS</t>
-  </si>
-  <si>
-    <t>HIPNOSE</t>
-  </si>
-  <si>
-    <t>AMNESIA</t>
-  </si>
-  <si>
-    <t>B.THREEDICES</t>
-  </si>
-  <si>
-    <t>AMNÉSIA</t>
-  </si>
-  <si>
-    <t>TELEPORT</t>
-  </si>
-  <si>
-    <t>TELEPORTE</t>
-  </si>
-  <si>
-    <t>PSYSHOCK</t>
-  </si>
-  <si>
-    <t>CHOQUE PSÍQUICO</t>
-  </si>
-  <si>
-    <t>DUAL CHOP</t>
-  </si>
-  <si>
-    <t>Dragon</t>
-  </si>
-  <si>
-    <t>PANCADA DUPLA</t>
-  </si>
-  <si>
-    <t>KARATE CHOP</t>
-  </si>
-  <si>
-    <t>GOLPE KARATÊ</t>
-  </si>
-  <si>
-    <t>CROSS CHOP</t>
-  </si>
-  <si>
-    <t>GOLPE CRUZADO</t>
-  </si>
-  <si>
-    <t>RAGE</t>
-  </si>
-  <si>
-    <t>W.FURY</t>
-  </si>
-  <si>
-    <t>FÚRIA</t>
-  </si>
-  <si>
-    <t>BULLDOZE</t>
-  </si>
-  <si>
-    <t>TREMOR</t>
-  </si>
-  <si>
-    <t>SMACK DOWN</t>
-  </si>
-  <si>
-    <t>Rock</t>
-  </si>
-  <si>
-    <t>DERRUBADA</t>
-  </si>
-  <si>
-    <t>SLASH</t>
-  </si>
-  <si>
-    <t>RETALHAR</t>
-  </si>
-  <si>
-    <t>ROCK BLAST</t>
-  </si>
-  <si>
-    <t>EXPLOSÃO DE ROCHA</t>
-  </si>
-  <si>
-    <t>HEAVY SLAM</t>
-  </si>
-  <si>
-    <t>Steel</t>
-  </si>
-  <si>
-    <t>GOLPE PESADO</t>
-  </si>
-  <si>
-    <t>HYPER FANG</t>
-  </si>
-  <si>
-    <t>MEGA PRESA</t>
-  </si>
-  <si>
-    <t>PSYCHO CUT</t>
-  </si>
-  <si>
-    <t>CORTE PSÍQUICO</t>
-  </si>
-  <si>
-    <t>HORN ATTACK</t>
-  </si>
-  <si>
-    <t>ATAQUE DE CHIFRE</t>
-  </si>
-  <si>
-    <t>SWIFT</t>
-  </si>
-  <si>
-    <t>ATAQUE VELOZ</t>
-  </si>
-  <si>
-    <t>THUNDER</t>
-  </si>
-  <si>
-    <t>RELÂMPAGO</t>
-  </si>
-  <si>
-    <t>BODY SLAM</t>
-  </si>
-  <si>
-    <t>GOLPE DE CORPO</t>
-  </si>
-  <si>
-    <t>SLAM</t>
-  </si>
-  <si>
-    <t>PANCADA</t>
-  </si>
-  <si>
-    <t>AURORA BEAM</t>
-  </si>
-  <si>
-    <t>Ice</t>
-  </si>
-  <si>
-    <t>RAIO AURORA</t>
-  </si>
-  <si>
-    <t>ICE BEAM</t>
-  </si>
-  <si>
-    <t>B.FREEZE</t>
-  </si>
-  <si>
-    <t>RAIO DE GELO</t>
-  </si>
-  <si>
-    <t>TAKE DOWN</t>
-  </si>
-  <si>
-    <t>W.KO</t>
-  </si>
-  <si>
-    <t>QUEDA DE CORPO</t>
-  </si>
-  <si>
-    <t>TOXIC</t>
-  </si>
-  <si>
-    <t>TÓXICO</t>
-  </si>
-  <si>
-    <t>ACID ARMOR</t>
-  </si>
-  <si>
-    <t>ARMADURA ÁCIDA</t>
-  </si>
-  <si>
-    <t>GUNK SHOT</t>
-  </si>
-  <si>
-    <t>TIRO DE SUJEIRA</t>
-  </si>
-  <si>
-    <t>CLAMP</t>
-  </si>
-  <si>
-    <t>PRENDER</t>
-  </si>
-  <si>
-    <t>LICK</t>
-  </si>
-  <si>
-    <t>LAMBIDA</t>
-  </si>
-  <si>
-    <t>SHADOW PUNCH</t>
-  </si>
-  <si>
-    <t>SOCO SOMBRIO</t>
-  </si>
-  <si>
-    <t>DARK PULSE</t>
-  </si>
-  <si>
-    <t>PULSO SOMBRIO</t>
-  </si>
-  <si>
-    <t>SHADOW BALL</t>
-  </si>
-  <si>
-    <t>BOLA SOMBRIA</t>
-  </si>
-  <si>
-    <t>FISSURE</t>
-  </si>
-  <si>
-    <t>FISSURA</t>
-  </si>
-  <si>
-    <t>ROCK SLIDE</t>
-  </si>
-  <si>
-    <t>DESLIZE DE PEDRA</t>
-  </si>
-  <si>
-    <t>PSYCHIC</t>
-  </si>
-  <si>
-    <t>PSÍQUICO</t>
-  </si>
-  <si>
-    <t>STOMP</t>
-  </si>
-  <si>
-    <t>PISOTEAR</t>
-  </si>
-  <si>
-    <t>CRABHAMMER</t>
-  </si>
-  <si>
-    <t>GARRA MARTELO</t>
-  </si>
-  <si>
-    <t>TRI ATTACK</t>
-  </si>
-  <si>
-    <t>ATAQUE TRIPLO</t>
-  </si>
-  <si>
-    <t>HEADBUTT</t>
-  </si>
-  <si>
-    <t>CABEÇADA</t>
-  </si>
-  <si>
-    <t>LIGHT SCREEN</t>
-  </si>
-  <si>
-    <t>TELA DE LUZ</t>
-  </si>
-  <si>
-    <t>VISE GRIP</t>
-  </si>
-  <si>
-    <t>APERTO COM GARRA</t>
-  </si>
-  <si>
-    <t>BONE CLUB</t>
-  </si>
-  <si>
-    <t>CLAVA DE OSSO</t>
-  </si>
-  <si>
-    <t>BONEMERANG</t>
-  </si>
-  <si>
-    <t>OSSO BUMERANGUE</t>
-  </si>
-  <si>
-    <t>MEGA PUNCH</t>
-  </si>
-  <si>
-    <t>MEGA SOCO</t>
-  </si>
-  <si>
-    <t>DIZZY PUNCH</t>
-  </si>
-  <si>
-    <t>SOCO ATORDOANTE</t>
-  </si>
-  <si>
-    <t>DOUBLE-EDGE</t>
-  </si>
-  <si>
-    <t>PONTADA DUPLA</t>
-  </si>
-  <si>
-    <t>COUNTER</t>
-  </si>
-  <si>
-    <t>CONTRA-ATAQUE</t>
-  </si>
-  <si>
-    <t>SMOG</t>
-  </si>
-  <si>
-    <t>POLUIÇÃO</t>
-  </si>
-  <si>
-    <t>POISON GAS</t>
-  </si>
-  <si>
-    <t>GÁS VENENOSO</t>
-  </si>
-  <si>
-    <t>SLUDGE BOMB</t>
-  </si>
-  <si>
-    <t>BOMBA DE LODO</t>
-  </si>
-  <si>
-    <t>DRILL RUN</t>
-  </si>
-  <si>
-    <t>BROCA VELOZ</t>
-  </si>
-  <si>
-    <t>STONE EDGE</t>
-  </si>
-  <si>
-    <t>GUME DE PEDRA</t>
-  </si>
-  <si>
-    <t>SKULL SMASH</t>
-  </si>
-  <si>
-    <t>QUEBRA-CRÂNIO</t>
-  </si>
-  <si>
-    <t>TWISTER</t>
-  </si>
-  <si>
-    <t>TORNADO</t>
-  </si>
-  <si>
-    <t>DRAGON PULSE</t>
-  </si>
-  <si>
-    <t>PULSO DO DRAGÃO</t>
-  </si>
-  <si>
-    <t>SCALD</t>
-  </si>
-  <si>
-    <t>ESCALDAR</t>
-  </si>
-  <si>
-    <t>MEGA HORN</t>
-  </si>
-  <si>
-    <t>MEGA CHIFRE</t>
-  </si>
-  <si>
-    <t>WATERFALL</t>
-  </si>
-  <si>
-    <t>CACHOEIRA</t>
-  </si>
-  <si>
-    <t>BARRIER</t>
-  </si>
-  <si>
-    <t>BARREIRA</t>
-  </si>
-  <si>
-    <t>FURY CUTTER</t>
-  </si>
-  <si>
-    <t>FÚRIA CORTANTE</t>
-  </si>
-  <si>
-    <t>ICE PUNCH</t>
-  </si>
-  <si>
-    <t>PUNHO DE GELO</t>
-  </si>
-  <si>
-    <t>X-SCISSOR</t>
-  </si>
-  <si>
-    <t>TESOURA X</t>
-  </si>
-  <si>
-    <t>FIRE PUNCH</t>
-  </si>
-  <si>
-    <t>PUNHO DE FOGO</t>
-  </si>
-  <si>
-    <t>THRASH</t>
-  </si>
-  <si>
-    <t>W.CONFUSION</t>
-  </si>
-  <si>
-    <t>CASTIGAR</t>
-  </si>
-  <si>
-    <t>HYPER BEAM</t>
-  </si>
-  <si>
-    <t>HIPER-RAIO</t>
-  </si>
-  <si>
-    <t>MEGA KICK</t>
-  </si>
-  <si>
-    <t>MEGA CHUTE</t>
-  </si>
-  <si>
-    <t>HURRICANE</t>
-  </si>
-  <si>
-    <t>FURAÇÃO</t>
-  </si>
-  <si>
-    <t>SELF-DESTRUCT</t>
-  </si>
-  <si>
-    <t>AUTODESTRUIÇÃO</t>
-  </si>
-  <si>
-    <t>THUNDER WAVE</t>
-  </si>
-  <si>
-    <t>ONDA TROVÃO</t>
-  </si>
-  <si>
-    <t>EXPLOSION</t>
-  </si>
-  <si>
-    <t>EXPLOSÃO</t>
   </si>
   <si>
     <t>ROLLOUT</t>
@@ -1838,7 +1841,7 @@
     </filterColumn>
   </autoFilter>
   <sortState ref="A2:J157">
-    <sortCondition ref="C1"/>
+    <sortCondition ref="A1"/>
   </sortState>
   <tableColumns count="10">
     <tableColumn id="1" name="ID"/>
@@ -2117,9 +2120,9 @@
   <dimension ref="A1:J157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D98" sqref="D98"/>
+      <selection pane="bottomLeft" activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -2186,22 +2189,19 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>13</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
         <v>14</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
         <v>15</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" hidden="1" spans="1:8">
@@ -2209,13 +2209,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F4" t="s">
         <v>18</v>
@@ -2249,13 +2249,13 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>22</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
@@ -2263,7 +2263,9 @@
       <c r="F6" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="1"/>
+      <c r="G6" s="1">
+        <v>6</v>
+      </c>
       <c r="H6" t="s">
         <v>24</v>
       </c>
@@ -2313,7 +2315,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>32</v>
@@ -2325,10 +2327,10 @@
         <v>14</v>
       </c>
       <c r="F9" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="H9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" hidden="1" spans="1:8">
@@ -2336,7 +2338,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -2351,24 +2353,24 @@
         <v>6</v>
       </c>
       <c r="H10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D11" t="s">
         <v>14</v>
       </c>
-      <c r="F11" t="s">
-        <v>37</v>
+      <c r="E11">
+        <v>8</v>
       </c>
       <c r="H11" t="s">
         <v>38</v>
@@ -2416,7 +2418,7 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>44</v>
@@ -2496,19 +2498,19 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>56</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D18" t="s">
         <v>14</v>
       </c>
       <c r="F18" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H18" t="s">
         <v>57</v>
@@ -2559,7 +2561,7 @@
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="F21" t="s">
         <v>18</v>
@@ -2568,15 +2570,15 @@
         <v>5</v>
       </c>
       <c r="H21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -2585,13 +2587,11 @@
         <v>14</v>
       </c>
       <c r="F22" t="s">
-        <v>67</v>
-      </c>
-      <c r="G22" s="1">
-        <v>5</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G22" s="1"/>
       <c r="H22" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" hidden="1" spans="1:8">
@@ -2599,19 +2599,19 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="F23" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H23" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" hidden="1" spans="1:8">
@@ -2619,7 +2619,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -2631,13 +2631,13 @@
         <v>4</v>
       </c>
       <c r="F24" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G24" s="1">
         <v>4</v>
       </c>
       <c r="H24" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" hidden="1" spans="1:8">
@@ -2645,19 +2645,19 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F25" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="H25" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" hidden="1" spans="1:8">
@@ -2665,7 +2665,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -2674,38 +2674,36 @@
         <v>42</v>
       </c>
       <c r="H26" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" t="s">
         <v>14</v>
       </c>
       <c r="F27" t="s">
-        <v>81</v>
-      </c>
-      <c r="G27" s="1">
-        <v>4</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="G27" s="1"/>
       <c r="H27" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -2714,10 +2712,10 @@
         <v>14</v>
       </c>
       <c r="F28" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="H28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="29" hidden="1" spans="1:8">
@@ -2725,7 +2723,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C29">
         <v>2</v>
@@ -2734,13 +2732,13 @@
         <v>42</v>
       </c>
       <c r="F29" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="G29" s="1">
         <v>5</v>
       </c>
       <c r="H29" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30" hidden="1" spans="1:8">
@@ -2748,7 +2746,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -2757,7 +2755,7 @@
         <v>42</v>
       </c>
       <c r="F30" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="H30" t="s">
         <v>88</v>
@@ -2854,30 +2852,28 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
         <v>101</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D35" t="s">
         <v>14</v>
       </c>
       <c r="F35" t="s">
-        <v>54</v>
-      </c>
-      <c r="G35" s="1">
-        <v>4</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G35" s="1"/>
       <c r="H35" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36">
-        <v>73</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
         <v>103</v>
@@ -2889,10 +2885,10 @@
         <v>14</v>
       </c>
       <c r="F36" t="s">
-        <v>70</v>
+        <v>104</v>
       </c>
       <c r="H36" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="37" hidden="1" spans="1:8">
@@ -2900,7 +2896,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -2909,10 +2905,10 @@
         <v>42</v>
       </c>
       <c r="F37" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="H37" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="38" hidden="1" spans="1:8">
@@ -2920,7 +2916,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C38">
         <v>2</v>
@@ -2929,7 +2925,7 @@
         <v>42</v>
       </c>
       <c r="H38" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="39" hidden="1" spans="1:8">
@@ -2937,7 +2933,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -2946,54 +2942,51 @@
         <v>42</v>
       </c>
       <c r="H39" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10">
-      <c r="A40" s="2">
-        <v>78</v>
-      </c>
-      <c r="B40" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C40" s="2">
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>112</v>
+      </c>
+      <c r="C40">
         <v>0</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D40" t="s">
         <v>14</v>
       </c>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G40" s="3"/>
-      <c r="H40" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
+      <c r="F40" t="s">
+        <v>45</v>
+      </c>
+      <c r="G40" s="1"/>
+      <c r="H40" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="41" hidden="1" spans="1:8">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C41">
         <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="F41" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="G41" s="1">
         <v>6</v>
       </c>
       <c r="H41" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="42" hidden="1" spans="1:8">
@@ -3001,91 +2994,87 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C42">
         <v>2</v>
       </c>
       <c r="D42" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F42" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="G42" s="1">
         <v>5</v>
       </c>
       <c r="H42" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="43" spans="1:8">
-      <c r="A43" s="2">
-        <v>97</v>
+      <c r="A43">
+        <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D43" t="s">
         <v>14</v>
       </c>
+      <c r="E43">
+        <v>4</v>
+      </c>
       <c r="F43" t="s">
-        <v>119</v>
-      </c>
-      <c r="G43" s="1"/>
+        <v>71</v>
+      </c>
+      <c r="G43" s="1">
+        <v>4</v>
+      </c>
       <c r="H43" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44">
-        <v>115</v>
+        <v>43</v>
       </c>
       <c r="B44" t="s">
         <v>121</v>
       </c>
       <c r="C44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D44" t="s">
         <v>14</v>
       </c>
-      <c r="F44" t="s">
-        <v>67</v>
-      </c>
-      <c r="G44" s="1">
-        <v>5</v>
-      </c>
       <c r="H44" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45">
-        <v>141</v>
+        <v>44</v>
       </c>
       <c r="B45" t="s">
         <v>123</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D45" t="s">
         <v>14</v>
       </c>
-      <c r="F45" t="s">
-        <v>119</v>
-      </c>
       <c r="H45" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46">
-        <v>142</v>
+        <v>45</v>
       </c>
       <c r="B46" t="s">
         <v>125</v>
@@ -3097,50 +3086,56 @@
         <v>14</v>
       </c>
       <c r="F46" t="s">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="G46" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H46" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47">
-        <v>143</v>
+        <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D47" t="s">
         <v>14</v>
       </c>
+      <c r="F47" t="s">
+        <v>129</v>
+      </c>
+      <c r="G47" s="1">
+        <v>5</v>
+      </c>
       <c r="H47" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48">
-        <v>145</v>
+        <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D48" t="s">
         <v>14</v>
       </c>
       <c r="F48" t="s">
-        <v>70</v>
+        <v>132</v>
       </c>
       <c r="H48" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="49" hidden="1" spans="1:8">
@@ -3148,16 +3143,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C49">
         <v>2</v>
       </c>
       <c r="D49" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H49" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="50" hidden="1" spans="1:8">
@@ -3165,68 +3160,76 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C50">
         <v>1</v>
       </c>
       <c r="D50" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E50">
         <v>4</v>
       </c>
       <c r="F50" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H50" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51">
-        <v>147</v>
+        <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D51" t="s">
         <v>14</v>
       </c>
       <c r="F51" t="s">
-        <v>70</v>
-      </c>
-      <c r="G51" s="1"/>
+        <v>94</v>
+      </c>
+      <c r="G51" s="1">
+        <v>5</v>
+      </c>
       <c r="H51" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D52" t="s">
         <v>14</v>
       </c>
+      <c r="F52" t="s">
+        <v>142</v>
+      </c>
+      <c r="G52" s="1">
+        <v>4</v>
+      </c>
       <c r="H52" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="53" spans="1:8">
       <c r="A53">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -3234,19 +3237,16 @@
       <c r="D53" t="s">
         <v>14</v>
       </c>
-      <c r="F53" t="s">
-        <v>141</v>
-      </c>
       <c r="H53" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="54" spans="1:8">
       <c r="A54">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -3258,30 +3258,33 @@
         <v>4</v>
       </c>
       <c r="F54" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G54" s="1">
         <v>4</v>
       </c>
       <c r="H54" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D55" t="s">
         <v>14</v>
       </c>
+      <c r="F55" t="s">
+        <v>87</v>
+      </c>
       <c r="H55" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="56" hidden="1" spans="1:8">
@@ -3289,7 +3292,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -3301,13 +3304,13 @@
         <v>4</v>
       </c>
       <c r="F56" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G56" s="1">
         <v>4</v>
       </c>
       <c r="H56" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="57" hidden="1" spans="1:8">
@@ -3315,19 +3318,19 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C57">
         <v>1</v>
       </c>
       <c r="D57" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="F57" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="H57" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="58" hidden="1" spans="1:8">
@@ -3335,39 +3338,45 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
+        <v>155</v>
+      </c>
+      <c r="C58">
+        <v>2</v>
+      </c>
+      <c r="D58" t="s">
         <v>153</v>
       </c>
-      <c r="C58">
-        <v>2</v>
-      </c>
-      <c r="D58" t="s">
-        <v>150</v>
-      </c>
       <c r="F58" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="G58" s="1">
         <v>6</v>
       </c>
       <c r="H58" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D59" t="s">
         <v>14</v>
       </c>
+      <c r="F59" t="s">
+        <v>54</v>
+      </c>
+      <c r="G59" s="1">
+        <v>4</v>
+      </c>
       <c r="H59" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="60" hidden="1" spans="1:8">
@@ -3375,22 +3384,22 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C60">
         <v>0</v>
       </c>
       <c r="D60" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F60" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="G60" s="1">
         <v>5</v>
       </c>
       <c r="H60" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="61" hidden="1" spans="1:8">
@@ -3398,13 +3407,13 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C61">
         <v>2</v>
       </c>
       <c r="D61" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="F61" t="s">
         <v>18</v>
@@ -3413,7 +3422,7 @@
         <v>4</v>
       </c>
       <c r="H61" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="62" hidden="1" spans="1:8">
@@ -3421,7 +3430,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -3433,7 +3442,7 @@
         <v>8</v>
       </c>
       <c r="H62" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="63" hidden="1" spans="1:8">
@@ -3441,7 +3450,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -3450,7 +3459,7 @@
         <v>11</v>
       </c>
       <c r="H63" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="64" hidden="1" spans="1:8">
@@ -3458,7 +3467,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -3473,7 +3482,7 @@
         <v>3</v>
       </c>
       <c r="H64" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="65" hidden="1" spans="1:8">
@@ -3481,7 +3490,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C65">
         <v>3</v>
@@ -3490,13 +3499,13 @@
         <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G65" s="1">
         <v>5</v>
       </c>
       <c r="H65" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="66" hidden="1" spans="1:8">
@@ -3504,13 +3513,13 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C66">
         <v>2</v>
       </c>
       <c r="D66" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="F66" t="s">
         <v>18</v>
@@ -3519,7 +3528,7 @@
         <v>6</v>
       </c>
       <c r="H66" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="67" hidden="1" spans="1:8">
@@ -3527,7 +3536,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -3536,10 +3545,10 @@
         <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>81</v>
+        <v>142</v>
       </c>
       <c r="H67" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="68" hidden="1" spans="1:8">
@@ -3547,22 +3556,22 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D68" t="s">
         <v>90</v>
       </c>
       <c r="F68" t="s">
-        <v>81</v>
+        <v>142</v>
       </c>
       <c r="G68" s="1">
         <v>6</v>
       </c>
       <c r="H68" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="69" hidden="1" spans="1:8">
@@ -3570,7 +3579,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -3579,13 +3588,13 @@
         <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>81</v>
+        <v>142</v>
       </c>
       <c r="G69" s="1">
         <v>3</v>
       </c>
       <c r="H69" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="70" hidden="1" spans="1:8">
@@ -3593,7 +3602,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C70">
         <v>2</v>
@@ -3602,10 +3611,10 @@
         <v>61</v>
       </c>
       <c r="F70" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H70" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="71" hidden="1" spans="1:10">
@@ -3613,29 +3622,29 @@
         <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C71" s="2">
         <v>2</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
       <c r="G71" s="3"/>
       <c r="H71" s="2" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="I71" s="2"/>
       <c r="J71" s="2"/>
     </row>
     <row r="72" spans="1:8">
       <c r="A72">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -3643,25 +3652,22 @@
       <c r="D72" t="s">
         <v>14</v>
       </c>
-      <c r="E72">
-        <v>4</v>
-      </c>
       <c r="F72" t="s">
-        <v>73</v>
+        <v>187</v>
       </c>
       <c r="G72" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H72" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="73" spans="1:8">
       <c r="A73">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -3669,40 +3675,38 @@
       <c r="D73" t="s">
         <v>14</v>
       </c>
+      <c r="E73">
+        <v>4</v>
+      </c>
       <c r="F73" t="s">
-        <v>187</v>
+        <v>71</v>
       </c>
       <c r="G73" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H73" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="74" spans="1:8">
       <c r="A74">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D74" t="s">
         <v>14</v>
       </c>
-      <c r="E74">
-        <v>4</v>
-      </c>
       <c r="F74" t="s">
-        <v>73</v>
-      </c>
-      <c r="G74" s="1">
-        <v>4</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="G74" s="1"/>
       <c r="H74" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="75" hidden="1" spans="1:8">
@@ -3710,7 +3714,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -3719,7 +3723,7 @@
         <v>48</v>
       </c>
       <c r="H75" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="76" hidden="1" spans="1:8">
@@ -3727,7 +3731,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -3736,13 +3740,13 @@
         <v>90</v>
       </c>
       <c r="F76" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="G76" s="1">
         <v>6</v>
       </c>
       <c r="H76" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="77" hidden="1" spans="1:8">
@@ -3750,22 +3754,22 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C77">
         <v>1</v>
       </c>
       <c r="D77" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="F77" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="G77" s="1">
         <v>6</v>
       </c>
       <c r="H77" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="78" hidden="1" spans="1:8">
@@ -3773,53 +3777,51 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C78">
         <v>0</v>
       </c>
       <c r="D78" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="F78" t="s">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="H78" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
-      <c r="A79">
-        <v>118</v>
-      </c>
-      <c r="B79" t="s">
-        <v>199</v>
-      </c>
-      <c r="C79">
-        <v>1</v>
-      </c>
-      <c r="D79" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="A79" s="2">
+        <v>78</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C79" s="2">
+        <v>0</v>
+      </c>
+      <c r="D79" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E79">
-        <v>4</v>
-      </c>
-      <c r="F79" t="s">
-        <v>73</v>
-      </c>
-      <c r="G79" s="1">
-        <v>4</v>
-      </c>
-      <c r="H79" t="s">
-        <v>200</v>
-      </c>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G79" s="3"/>
+      <c r="H79" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="I79" s="2"/>
+      <c r="J79" s="2"/>
     </row>
     <row r="80" hidden="1" spans="1:10">
       <c r="A80" s="2">
         <v>79</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C80" s="2">
         <v>0</v>
@@ -3829,13 +3831,13 @@
       </c>
       <c r="E80" s="2"/>
       <c r="F80" s="2" t="s">
-        <v>81</v>
+        <v>142</v>
       </c>
       <c r="G80" s="3">
         <v>4</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="I80" s="2"/>
       <c r="J80" s="2"/>
@@ -3845,7 +3847,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C81" s="2">
         <v>0</v>
@@ -3855,11 +3857,11 @@
       </c>
       <c r="E81" s="2"/>
       <c r="F81" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="G81" s="3"/>
       <c r="H81" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="I81" s="2"/>
       <c r="J81" s="2"/>
@@ -3869,7 +3871,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C82">
         <v>0</v>
@@ -3878,7 +3880,7 @@
         <v>90</v>
       </c>
       <c r="H82" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="83" hidden="1" spans="1:8">
@@ -3886,7 +3888,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C83">
         <v>2</v>
@@ -3895,7 +3897,7 @@
         <v>90</v>
       </c>
       <c r="H83" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="84" hidden="1" spans="1:8">
@@ -3903,22 +3905,22 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C84">
         <v>1</v>
       </c>
       <c r="D84" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E84">
         <v>4</v>
       </c>
       <c r="F84" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H84" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="85" hidden="1" spans="1:8">
@@ -3926,19 +3928,19 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C85">
         <v>1</v>
       </c>
       <c r="D85" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E85">
         <v>8</v>
       </c>
       <c r="H85" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="86" hidden="1" spans="1:8">
@@ -3946,39 +3948,36 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C86">
         <v>2</v>
       </c>
       <c r="D86" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E86">
         <v>8</v>
       </c>
       <c r="H86" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="87" spans="1:8">
-      <c r="A87">
-        <v>121</v>
+      <c r="A87" s="2">
+        <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C87">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D87" t="s">
         <v>14</v>
       </c>
-      <c r="F87" t="s">
-        <v>218</v>
-      </c>
       <c r="H87" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="88" hidden="1" spans="1:10">
@@ -3986,23 +3985,23 @@
         <v>87</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C88" s="2">
         <v>1</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" s="2" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="G88" s="3">
         <v>6</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I88" s="2"/>
       <c r="J88" s="2"/>
@@ -4012,69 +4011,73 @@
         <v>88</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C89" s="2">
         <v>1</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" s="2" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="G89" s="3"/>
       <c r="H89" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="I89" s="2"/>
       <c r="J89" s="2"/>
     </row>
-    <row r="90" spans="1:8">
-      <c r="A90">
-        <v>10</v>
-      </c>
-      <c r="B90" t="s">
-        <v>225</v>
-      </c>
-      <c r="C90">
-        <v>2</v>
-      </c>
-      <c r="D90" t="s">
+    <row r="90" spans="1:10">
+      <c r="A90" s="2">
+        <v>89</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C90" s="2">
+        <v>4</v>
+      </c>
+      <c r="D90" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E90">
-        <v>8</v>
-      </c>
-      <c r="H90" t="s">
-        <v>226</v>
-      </c>
+      <c r="E90" s="2"/>
+      <c r="F90" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G90" s="3"/>
+      <c r="H90" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="I90" s="2"/>
+      <c r="J90" s="2"/>
     </row>
     <row r="91" hidden="1" spans="1:10">
       <c r="A91" s="2">
         <v>90</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C91" s="2">
         <v>1</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E91" s="2">
         <v>4</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G91" s="3">
         <v>4</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="I91" s="2"/>
       <c r="J91" s="2"/>
@@ -4084,13 +4087,13 @@
         <v>91</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C92" s="2">
         <v>0</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" s="2" t="s">
@@ -4098,38 +4101,43 @@
       </c>
       <c r="G92" s="3"/>
       <c r="H92" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="I92" s="2"/>
       <c r="J92" s="2"/>
     </row>
-    <row r="93" spans="1:8">
-      <c r="A93">
-        <v>34</v>
-      </c>
-      <c r="B93" t="s">
-        <v>232</v>
-      </c>
-      <c r="C93">
-        <v>2</v>
-      </c>
-      <c r="D93" t="s">
+    <row r="93" spans="1:10">
+      <c r="A93" s="2">
+        <v>92</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C93" s="2">
+        <v>2</v>
+      </c>
+      <c r="D93" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F93" t="s">
-        <v>15</v>
-      </c>
-      <c r="G93" s="1"/>
-      <c r="H93" t="s">
-        <v>233</v>
-      </c>
+      <c r="E93" s="2"/>
+      <c r="F93" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G93" s="3">
+        <v>6</v>
+      </c>
+      <c r="H93" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="I93" s="2"/>
+      <c r="J93" s="2"/>
     </row>
     <row r="94" hidden="1" spans="1:8">
       <c r="A94" s="2">
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C94">
         <v>2</v>
@@ -4141,53 +4149,61 @@
         <v>8</v>
       </c>
       <c r="H94" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="95" spans="1:8">
-      <c r="A95">
-        <v>44</v>
+      <c r="A95" s="2">
+        <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C95">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D95" t="s">
         <v>14</v>
       </c>
+      <c r="F95" t="s">
+        <v>26</v>
+      </c>
       <c r="H95" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
-      <c r="A96">
-        <v>47</v>
-      </c>
-      <c r="B96" t="s">
         <v>238</v>
       </c>
-      <c r="C96">
-        <v>2</v>
-      </c>
-      <c r="D96" t="s">
+    </row>
+    <row r="96" spans="1:10">
+      <c r="A96" s="2">
+        <v>95</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C96" s="2">
+        <v>2</v>
+      </c>
+      <c r="D96" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F96" t="s">
-        <v>151</v>
-      </c>
-      <c r="G96" s="1"/>
-      <c r="H96" t="s">
-        <v>239</v>
-      </c>
+      <c r="E96" s="2"/>
+      <c r="F96" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G96" s="3">
+        <v>5</v>
+      </c>
+      <c r="H96" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="I96" s="2"/>
+      <c r="J96" s="2"/>
     </row>
     <row r="97" hidden="1" spans="1:10">
       <c r="A97" s="2">
         <v>96</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C97" s="2">
         <v>2</v>
@@ -4203,40 +4219,38 @@
         <v>6</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I97" s="2"/>
       <c r="J97" s="2"/>
     </row>
     <row r="98" spans="1:8">
-      <c r="A98">
-        <v>50</v>
+      <c r="A98" s="2">
+        <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C98">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D98" t="s">
         <v>14</v>
       </c>
       <c r="F98" t="s">
-        <v>94</v>
-      </c>
-      <c r="G98" s="1">
-        <v>5</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="G98" s="1"/>
       <c r="H98" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="99" spans="1:8">
       <c r="A99" s="2">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C99">
         <v>2</v>
@@ -4244,8 +4258,14 @@
       <c r="D99" t="s">
         <v>14</v>
       </c>
+      <c r="F99" t="s">
+        <v>87</v>
+      </c>
+      <c r="G99" s="1">
+        <v>6</v>
+      </c>
       <c r="H99" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="100" hidden="1" spans="1:8">
@@ -4253,22 +4273,22 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C100">
         <v>2</v>
       </c>
       <c r="D100" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F100" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="G100" s="1">
         <v>6</v>
       </c>
       <c r="H100" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="101" hidden="1" spans="1:8">
@@ -4276,62 +4296,59 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
+        <v>251</v>
+      </c>
+      <c r="C101">
+        <v>2</v>
+      </c>
+      <c r="D101" t="s">
         <v>249</v>
       </c>
-      <c r="C101">
-        <v>2</v>
-      </c>
-      <c r="D101" t="s">
-        <v>247</v>
-      </c>
       <c r="F101" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G101" s="1">
         <v>6</v>
       </c>
       <c r="H101" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="2">
-        <v>92</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="C102" s="2">
-        <v>2</v>
-      </c>
-      <c r="D102" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>254</v>
+      </c>
+      <c r="C102">
+        <v>2</v>
+      </c>
+      <c r="D102" t="s">
         <v>14</v>
       </c>
-      <c r="E102" s="2"/>
-      <c r="F102" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="G102" s="3">
-        <v>6</v>
-      </c>
-      <c r="H102" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="I102" s="2"/>
-      <c r="J102" s="2"/>
+      <c r="F102" t="s">
+        <v>33</v>
+      </c>
+      <c r="G102" s="1">
+        <v>5</v>
+      </c>
+      <c r="H102" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="103" hidden="1" spans="1:8">
       <c r="A103">
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C103">
         <v>0</v>
       </c>
       <c r="D103" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="F103" t="s">
         <v>18</v>
@@ -4340,7 +4357,7 @@
         <v>2</v>
       </c>
       <c r="H103" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="104" hidden="1" spans="1:8">
@@ -4348,19 +4365,19 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C104">
         <v>0</v>
       </c>
       <c r="D104" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="F104" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="H104" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="105" hidden="1" spans="1:8">
@@ -4368,13 +4385,13 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C105">
         <v>3</v>
       </c>
       <c r="D105" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="F105" t="s">
         <v>18</v>
@@ -4383,7 +4400,7 @@
         <v>5</v>
       </c>
       <c r="H105" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="106" hidden="1" spans="1:8">
@@ -4391,7 +4408,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -4403,13 +4420,13 @@
         <v>4</v>
       </c>
       <c r="F106" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G106" s="1">
         <v>4</v>
       </c>
       <c r="H106" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="107" hidden="1" spans="1:8">
@@ -4417,13 +4434,13 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C107">
         <v>1</v>
       </c>
       <c r="D107" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F107" t="s">
         <v>94</v>
@@ -4432,7 +4449,7 @@
         <v>5</v>
       </c>
       <c r="H107" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="108" hidden="1" spans="1:8">
@@ -4440,19 +4457,19 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C108">
         <v>2</v>
       </c>
       <c r="D108" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F108" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="H108" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="109" hidden="1" spans="1:8">
@@ -4460,22 +4477,22 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C109">
         <v>2</v>
       </c>
       <c r="D109" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F109" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="G109" s="1">
         <v>6</v>
       </c>
       <c r="H109" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="110" hidden="1" spans="1:8">
@@ -4483,22 +4500,22 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C110">
         <v>2</v>
       </c>
       <c r="D110" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F110" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="G110" s="1">
         <v>6</v>
       </c>
       <c r="H110" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="111" hidden="1" spans="1:8">
@@ -4506,22 +4523,22 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C111">
         <v>0</v>
       </c>
       <c r="D111" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F111" t="s">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="G111" s="1">
         <v>5</v>
       </c>
       <c r="H111" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="112" hidden="1" spans="1:8">
@@ -4529,22 +4546,22 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C112">
         <v>2</v>
       </c>
       <c r="D112" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F112" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="G112" s="1">
         <v>5</v>
       </c>
       <c r="H112" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="113" hidden="1" spans="1:8">
@@ -4552,7 +4569,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C113">
         <v>2</v>
@@ -4561,47 +4578,38 @@
         <v>90</v>
       </c>
       <c r="F113" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="G113" s="1">
         <v>6</v>
       </c>
       <c r="H113" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10">
-      <c r="A114" s="2">
-        <v>95</v>
-      </c>
-      <c r="B114" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="C114" s="2">
-        <v>2</v>
-      </c>
-      <c r="D114" s="2" t="s">
+    </row>
+    <row r="114" spans="1:8">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>278</v>
+      </c>
+      <c r="C114">
+        <v>2</v>
+      </c>
+      <c r="D114" t="s">
         <v>14</v>
       </c>
-      <c r="E114" s="2"/>
-      <c r="F114" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G114" s="3">
-        <v>5</v>
-      </c>
-      <c r="H114" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="I114" s="2"/>
-      <c r="J114" s="2"/>
+      <c r="H114" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="115" hidden="1" spans="1:8">
       <c r="A115">
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C115">
         <v>2</v>
@@ -4613,53 +4621,51 @@
         <v>8</v>
       </c>
       <c r="H115" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="116" spans="1:8">
-      <c r="A116" s="2">
-        <v>98</v>
+      <c r="A116">
+        <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C116">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D116" t="s">
         <v>14</v>
       </c>
       <c r="F116" t="s">
-        <v>70</v>
+        <v>126</v>
       </c>
       <c r="G116" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H116" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="117" spans="1:8">
-      <c r="A117" s="2">
-        <v>101</v>
+      <c r="A117">
+        <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C117">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D117" t="s">
         <v>14</v>
       </c>
       <c r="F117" t="s">
-        <v>15</v>
-      </c>
-      <c r="G117" s="1">
-        <v>5</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="G117" s="1"/>
       <c r="H117" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="118" hidden="1" spans="1:8">
@@ -4667,7 +4673,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C118">
         <v>0</v>
@@ -4676,27 +4682,36 @@
         <v>90</v>
       </c>
       <c r="F118" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="H118" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="119" spans="1:8">
       <c r="A119">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C119">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D119" t="s">
         <v>14</v>
       </c>
+      <c r="E119">
+        <v>4</v>
+      </c>
+      <c r="F119" t="s">
+        <v>71</v>
+      </c>
+      <c r="G119" s="1">
+        <v>4</v>
+      </c>
       <c r="H119" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="120" hidden="1" spans="1:8">
@@ -4704,22 +4719,22 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C120">
         <v>2</v>
       </c>
       <c r="D120" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F120" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="G120" s="1">
         <v>6</v>
       </c>
       <c r="H120" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="121" hidden="1" spans="1:8">
@@ -4727,47 +4742,50 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C121">
         <v>1</v>
       </c>
       <c r="D121" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E121">
         <v>4</v>
       </c>
       <c r="F121" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H121" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="122" spans="1:8">
       <c r="A122">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C122">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D122" t="s">
         <v>14</v>
       </c>
+      <c r="F122" t="s">
+        <v>295</v>
+      </c>
       <c r="H122" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="123" spans="1:8">
       <c r="A123">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C123">
         <v>2</v>
@@ -4775,22 +4793,16 @@
       <c r="D123" t="s">
         <v>14</v>
       </c>
-      <c r="F123" t="s">
-        <v>54</v>
-      </c>
-      <c r="G123" s="1">
-        <v>6</v>
-      </c>
       <c r="H123" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="124" spans="1:8">
       <c r="A124">
-        <v>5</v>
+        <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C124">
         <v>3</v>
@@ -4798,14 +4810,8 @@
       <c r="D124" t="s">
         <v>14</v>
       </c>
-      <c r="F124" t="s">
-        <v>253</v>
-      </c>
-      <c r="G124" s="1">
-        <v>6</v>
-      </c>
       <c r="H124" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="125" hidden="1" spans="1:8">
@@ -4813,19 +4819,19 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C125">
         <v>0</v>
       </c>
       <c r="D125" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="F125" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="H125" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="126" hidden="1" spans="1:8">
@@ -4833,22 +4839,22 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C126">
         <v>1</v>
       </c>
       <c r="D126" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="F126" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="G126" s="1">
         <v>5</v>
       </c>
       <c r="H126" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="127" hidden="1" spans="1:8">
@@ -4856,13 +4862,13 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C127">
         <v>0</v>
       </c>
       <c r="D127" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="F127" t="s">
         <v>18</v>
@@ -4871,7 +4877,7 @@
         <v>2</v>
       </c>
       <c r="H127" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="128" hidden="1" spans="1:8">
@@ -4879,13 +4885,13 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C128">
         <v>2</v>
       </c>
       <c r="D128" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="F128" t="s">
         <v>18</v>
@@ -4894,7 +4900,7 @@
         <v>5</v>
       </c>
       <c r="H128" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="129" hidden="1" spans="1:8">
@@ -4902,19 +4908,19 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C129">
         <v>2</v>
       </c>
       <c r="D129" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E129">
         <v>8</v>
       </c>
       <c r="H129" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="130" hidden="1" spans="1:8">
@@ -4922,40 +4928,42 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C130">
         <v>2</v>
       </c>
       <c r="D130" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E130">
         <v>8</v>
       </c>
       <c r="H130" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="131" spans="1:8">
       <c r="A131">
-        <v>17</v>
+        <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C131">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D131" t="s">
         <v>14</v>
       </c>
       <c r="F131" t="s">
-        <v>26</v>
-      </c>
-      <c r="G131" s="1"/>
+        <v>54</v>
+      </c>
+      <c r="G131" s="1">
+        <v>6</v>
+      </c>
       <c r="H131" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="132" hidden="1" spans="1:8">
@@ -4963,22 +4971,22 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C132">
         <v>1</v>
       </c>
       <c r="D132" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F132" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="G132" s="1">
         <v>6</v>
       </c>
       <c r="H132" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="133" hidden="1" spans="1:8">
@@ -4986,16 +4994,16 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C133">
         <v>2</v>
       </c>
       <c r="D133" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="H133" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="134" hidden="1" spans="1:8">
@@ -5003,7 +5011,7 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C134">
         <v>2</v>
@@ -5018,7 +5026,7 @@
         <v>5</v>
       </c>
       <c r="H134" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="135" hidden="1" spans="1:8">
@@ -5026,7 +5034,7 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C135">
         <v>2</v>
@@ -5035,7 +5043,7 @@
         <v>61</v>
       </c>
       <c r="H135" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="136" hidden="1" spans="1:8">
@@ -5043,7 +5051,7 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C136">
         <v>2</v>
@@ -5052,13 +5060,13 @@
         <v>48</v>
       </c>
       <c r="F136" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="G136" s="1">
         <v>6</v>
       </c>
       <c r="H136" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="137" hidden="1" spans="1:8">
@@ -5066,7 +5074,7 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C137">
         <v>0</v>
@@ -5075,10 +5083,10 @@
         <v>90</v>
       </c>
       <c r="F137" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="H137" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="138" hidden="1" spans="1:8">
@@ -5086,7 +5094,7 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C138">
         <v>1</v>
@@ -5095,10 +5103,10 @@
         <v>61</v>
       </c>
       <c r="F138" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="H138" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="139" hidden="1" spans="1:8">
@@ -5106,22 +5114,22 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C139">
         <v>2</v>
       </c>
       <c r="D139" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F139" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G139" s="1">
         <v>6</v>
       </c>
       <c r="H139" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="140" hidden="1" spans="1:8">
@@ -5129,7 +5137,7 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C140">
         <v>2</v>
@@ -5141,7 +5149,7 @@
         <v>8</v>
       </c>
       <c r="H140" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="141" hidden="1" spans="1:8">
@@ -5149,7 +5157,7 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C141">
         <v>2</v>
@@ -5164,68 +5172,68 @@
         <v>6</v>
       </c>
       <c r="H141" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="142" spans="1:8">
       <c r="A142">
-        <v>46</v>
+        <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C142">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D142" t="s">
         <v>14</v>
       </c>
       <c r="F142" t="s">
-        <v>334</v>
-      </c>
-      <c r="G142" s="1">
-        <v>5</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="G142" s="1"/>
       <c r="H142" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="143" spans="1:8">
-      <c r="A143" s="2">
-        <v>94</v>
+      <c r="A143">
+        <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C143">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D143" t="s">
         <v>14</v>
       </c>
       <c r="F143" t="s">
-        <v>26</v>
-      </c>
-      <c r="G143" s="1"/>
+        <v>142</v>
+      </c>
+      <c r="G143" s="1">
+        <v>3</v>
+      </c>
       <c r="H143" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="144" spans="1:8">
       <c r="A144">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C144">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D144" t="s">
         <v>14</v>
       </c>
       <c r="H144" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="145" hidden="1" spans="1:8">
@@ -5233,7 +5241,7 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C145">
         <v>3</v>
@@ -5248,39 +5256,36 @@
         <v>6</v>
       </c>
       <c r="H145" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="146" spans="1:10">
-      <c r="A146" s="2">
-        <v>89</v>
-      </c>
-      <c r="B146" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="C146" s="2">
-        <v>4</v>
-      </c>
-      <c r="D146" s="2" t="s">
+    </row>
+    <row r="146" spans="1:8">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146" t="s">
+        <v>343</v>
+      </c>
+      <c r="C146">
+        <v>0</v>
+      </c>
+      <c r="D146" t="s">
         <v>14</v>
       </c>
-      <c r="E146" s="2"/>
-      <c r="F146" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="G146" s="3"/>
-      <c r="H146" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="I146" s="2"/>
-      <c r="J146" s="2"/>
+      <c r="F146" t="s">
+        <v>87</v>
+      </c>
+      <c r="G146" s="1"/>
+      <c r="H146" t="s">
+        <v>344</v>
+      </c>
     </row>
     <row r="147" hidden="1" spans="1:8">
       <c r="A147">
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C147">
         <v>0</v>
@@ -5295,27 +5300,27 @@
         <v>2</v>
       </c>
       <c r="H147" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="148" spans="1:8">
       <c r="A148">
-        <v>116</v>
+        <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C148">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D148" t="s">
         <v>14</v>
       </c>
       <c r="F148" t="s">
-        <v>253</v>
+        <v>87</v>
       </c>
       <c r="H148" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="149" hidden="1"/>
@@ -5324,19 +5329,19 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C150">
         <v>1</v>
       </c>
       <c r="D150" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F150" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="H150" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="151" hidden="1" spans="1:8">
@@ -5344,22 +5349,22 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C151">
         <v>2</v>
       </c>
       <c r="D151" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F151" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="G151" s="1">
         <v>6</v>
       </c>
       <c r="H151" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="152" hidden="1" spans="1:8">
@@ -5367,7 +5372,7 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C152">
         <v>1</v>
@@ -5376,10 +5381,10 @@
         <v>48</v>
       </c>
       <c r="F152" t="s">
-        <v>141</v>
+        <v>79</v>
       </c>
       <c r="H152" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="153" hidden="1" spans="1:8">
@@ -5387,22 +5392,22 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C153">
         <v>2</v>
       </c>
       <c r="D153" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F153" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="G153" s="1">
         <v>6</v>
       </c>
       <c r="H153" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="154" hidden="1" spans="1:8">
@@ -5410,19 +5415,19 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C154">
         <v>2</v>
       </c>
       <c r="D154" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="F154" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="H154" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="155" hidden="1" spans="1:8">
@@ -5430,22 +5435,22 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C155">
         <v>3</v>
       </c>
       <c r="D155" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F155" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G155" s="1">
         <v>6</v>
       </c>
       <c r="H155" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="156" hidden="1" spans="1:8">
@@ -5453,7 +5458,7 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C156">
         <v>3</v>
@@ -5465,13 +5470,13 @@
         <v>8</v>
       </c>
       <c r="F156" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="G156" s="1">
         <v>5</v>
       </c>
       <c r="H156" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="157" hidden="1" spans="1:8">
@@ -5479,22 +5484,22 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C157">
         <v>3</v>
       </c>
       <c r="D157" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E157">
         <v>4</v>
       </c>
       <c r="F157" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H157" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
   </sheetData>
